--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B462A0-B870-41FB-918E-D0D38D0DFC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A3D4C-57B2-4CBF-B010-8B73A6A93F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="915" windowWidth="24555" windowHeight="17085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="635">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -1919,6 +1919,24 @@
   </si>
   <si>
     <t>You wish to include the emissions associated with the generation of imported electricity (which occur outside the modeled region) in the modeled region's emissions outputs  (The default is disabled.)</t>
+  </si>
+  <si>
+    <t>SoTCCbIC</t>
+  </si>
+  <si>
+    <t>Share of Transmission Capital Costs by ISIC Code</t>
+  </si>
+  <si>
+    <t>CRbQ</t>
+  </si>
+  <si>
+    <t>Capacity Retirements before Quantization</t>
+  </si>
+  <si>
+    <t>You wish to switch from the BAU plant retirement schedule to an alternative schedule you have specified in input data (rather than using the early retirement policy lever, which accelerates retirements and is additive to the BAU retirements)</t>
+  </si>
+  <si>
+    <t>BAU Fraction of CCS Potential Achieved by Electricity Sector, BAU Fraction of CCS Potential Achieved by Industry Sector</t>
   </si>
 </sst>
 </file>
@@ -2803,7 +2821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3311,7 +3329,7 @@
       </c>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>36</v>
       </c>
@@ -3321,7 +3339,9 @@
       <c r="C32" s="27" t="s">
         <v>498</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="27" t="s">
+        <v>634</v>
+      </c>
       <c r="E32" s="27"/>
       <c r="F32" s="35" t="s">
         <v>118</v>
@@ -3896,53 +3916,52 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>382</v>
+        <v>631</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>382</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="4" t="s">
-        <v>116</v>
+        <v>63</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3950,17 +3969,17 @@
         <v>44</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>358</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>359</v>
+        <v>200</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>360</v>
+        <v>201</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="5" t="s">
-        <v>117</v>
+      <c r="F71" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3968,16 +3987,17 @@
         <v>44</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>116</v>
+        <v>358</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3985,47 +4005,50 @@
         <v>44</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>565</v>
+        <v>198</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>566</v>
+        <v>199</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>118</v>
+        <v>482</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4033,44 +4056,44 @@
         <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>333</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>371</v>
+        <v>64</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4078,61 +4101,61 @@
         <v>44</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>485</v>
+        <v>371</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>596</v>
+        <v>484</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>211</v>
+        <v>596</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>314</v>
+        <v>210</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4140,13 +4163,13 @@
         <v>44</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>116</v>
+        <v>182</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4154,13 +4177,13 @@
         <v>44</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>117</v>
+        <v>65</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4168,10 +4191,10 @@
         <v>44</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>117</v>
@@ -4182,44 +4205,44 @@
         <v>44</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>116</v>
+        <v>66</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4227,78 +4250,75 @@
         <v>44</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>551</v>
+        <v>250</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>552</v>
+        <v>251</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>226</v>
+        <v>551</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>227</v>
+        <v>552</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>196</v>
+        <v>629</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>116</v>
+        <v>630</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4306,62 +4326,65 @@
         <v>44</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19" t="s">
+    <row r="97" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B97" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C97" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D97" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="23" t="s">
+      <c r="E97" s="19"/>
+      <c r="F97" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="G95" s="19" t="s">
+      <c r="G97" s="19" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4369,10 +4392,10 @@
         <v>341</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>117</v>
@@ -4383,10 +4406,10 @@
         <v>341</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>117</v>
@@ -4397,27 +4420,27 @@
         <v>341</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>513</v>
+        <v>337</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>118</v>
+        <v>338</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4425,10 +4448,10 @@
         <v>341</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>117</v>
@@ -4439,95 +4462,89 @@
         <v>341</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F105" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19" t="s">
+    <row r="106" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B106" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C106" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="22" t="s">
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G104" s="19"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G105" s="27"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="G106" s="19"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>461</v>
-      </c>
+      <c r="B107" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
       <c r="F107" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G107" s="27"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>579</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>72</v>
+        <v>580</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>332</v>
+        <v>581</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>116</v>
@@ -4538,30 +4555,33 @@
         <v>68</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>386</v>
+        <v>459</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>412</v>
+        <v>72</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4569,10 +4589,10 @@
         <v>68</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>118</v>
@@ -4583,33 +4603,30 @@
         <v>68</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>472</v>
+        <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>376</v>
+        <v>73</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>473</v>
+        <v>384</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>479</v>
+        <v>385</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4617,326 +4634,332 @@
         <v>68</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F114" s="18" t="s">
         <v>376</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="27" t="s">
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B116" s="27" t="s">
+      <c r="B118" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="C118" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D118" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="E116" s="27"/>
-      <c r="F116" s="28" t="s">
+      <c r="E118" s="27"/>
+      <c r="F118" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G116" s="27"/>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="27" t="s">
+      <c r="G118" s="27"/>
+    </row>
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B117" s="27" t="s">
+      <c r="B119" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C119" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="37" t="s">
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G117" s="27"/>
-    </row>
-    <row r="118" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+      <c r="G119" s="27"/>
+    </row>
+    <row r="120" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F118" s="25" t="s">
+      <c r="F120" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="33" t="s">
+    <row r="121" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B121" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C121" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D121" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="E119" s="33"/>
-      <c r="F119" s="21" t="s">
+      <c r="E121" s="33"/>
+      <c r="F121" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G119" s="33"/>
-    </row>
-    <row r="120" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="G121" s="33"/>
     </row>
     <row r="122" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>436</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>436</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>436</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>436</v>
       </c>
       <c r="B125" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C127" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F127" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G125" s="13" t="s">
+      <c r="G127" s="13" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
+    <row r="128" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B128" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C128" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="36" t="s">
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G128" s="29" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="24" t="s">
+    <row r="129" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B129" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C129" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="22" t="s">
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G127" s="24"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="G129" s="24"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="F130" s="14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="27" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B131" s="27" t="s">
         <v>603</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C131" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="37" t="s">
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G129" s="27"/>
-    </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="27" t="s">
+      <c r="G131" s="27"/>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B130" s="27" t="s">
+      <c r="B132" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C132" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D132" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="30" t="s">
+      <c r="E132" s="27"/>
+      <c r="F132" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="G130" s="27"/>
-    </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F131" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="G132" s="27"/>
     </row>
     <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>615</v>
+        <v>244</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>118</v>
+        <v>245</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4944,44 +4967,41 @@
         <v>76</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F136" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>424</v>
+        <v>83</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4989,13 +5009,11 @@
         <v>76</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
+        <v>610</v>
+      </c>
       <c r="F137" s="6" t="s">
         <v>118</v>
       </c>
@@ -5005,41 +5023,43 @@
         <v>76</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F139" s="30" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>117</v>
@@ -5050,13 +5070,16 @@
         <v>76</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>118</v>
+        <v>85</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F141" s="30" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5064,13 +5087,13 @@
         <v>76</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>348</v>
+        <v>237</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>118</v>
+        <v>238</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5078,143 +5101,137 @@
         <v>76</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F144" s="18" t="s">
+      <c r="F146" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="G146" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="27" t="s">
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B145" s="27" t="s">
+      <c r="B147" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C147" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="28" t="s">
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G145" s="27"/>
-    </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="27" t="s">
+      <c r="G147" s="27"/>
+    </row>
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B146" s="27" t="s">
+      <c r="B148" s="27" t="s">
         <v>605</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C148" s="27" t="s">
         <v>606</v>
-      </c>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G146" s="27"/>
-    </row>
-    <row r="147" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G147" s="19"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>526</v>
       </c>
       <c r="D148" s="27"/>
       <c r="E148" s="27"/>
-      <c r="F148" s="4" t="s">
-        <v>116</v>
+      <c r="F148" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="G148" s="27"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="B149" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="C149" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G149" s="27"/>
+    <row r="149" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G149" s="19"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="B150" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
+      <c r="B150" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
       <c r="F150" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G150" s="32"/>
+      <c r="G150" s="27"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>515</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="27"/>
@@ -5223,105 +5240,105 @@
       </c>
       <c r="G151" s="27"/>
     </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="B152" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="E152" s="27"/>
+      <c r="B152" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G152" s="27"/>
-    </row>
-    <row r="153" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="32"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
         <v>515</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="F153" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="G153" s="27"/>
     </row>
     <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="B154" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G154" s="32"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="E154" s="27"/>
+      <c r="F154" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G154" s="27"/>
+    </row>
+    <row r="155" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
         <v>515</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F155" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G155" s="27"/>
     </row>
     <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="B156" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G156" s="27"/>
-    </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B156" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G156" s="32"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
         <v>515</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>587</v>
+        <v>517</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="D157" s="27" t="s">
-        <v>589</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="D157" s="27"/>
       <c r="E157" s="27"/>
-      <c r="F157" s="4"/>
+      <c r="F157" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="G157" s="27"/>
     </row>
     <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5329,51 +5346,51 @@
         <v>515</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="D158" s="27"/>
-      <c r="E158" s="27" t="s">
-        <v>517</v>
-      </c>
+      <c r="E158" s="27"/>
       <c r="F158" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G158" s="27"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
         <v>515</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="D159" s="27"/>
+        <v>588</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>589</v>
+      </c>
       <c r="E159" s="27"/>
-      <c r="F159" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="F159" s="4"/>
       <c r="G159" s="27"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>515</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>518</v>
+        <v>617</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>520</v>
+        <v>618</v>
       </c>
       <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="6" t="s">
-        <v>118</v>
+      <c r="E160" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="G160" s="27"/>
     </row>
@@ -5382,10 +5399,10 @@
         <v>515</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27"/>
@@ -5399,10 +5416,10 @@
         <v>515</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27"/>
@@ -5416,15 +5433,15 @@
         <v>515</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>619</v>
+        <v>573</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>620</v>
+        <v>574</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27"/>
-      <c r="F163" s="4" t="s">
-        <v>116</v>
+      <c r="F163" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G163" s="27"/>
     </row>
@@ -5433,95 +5450,98 @@
         <v>515</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27"/>
-      <c r="F164" s="35" t="s">
+      <c r="F164" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G164" s="27"/>
     </row>
-    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="19" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="B165" s="19" t="s">
+      <c r="B165" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G165" s="27"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G166" s="27"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="B167" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="C165" s="19" t="s">
+      <c r="C167" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="21" t="s">
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G165" s="19"/>
-    </row>
-    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>314</v>
-      </c>
+      <c r="G167" s="19"/>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F169" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>425</v>
+        <v>378</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5529,27 +5549,30 @@
         <v>110</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>118</v>
+        <v>261</v>
+      </c>
+      <c r="F171" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5557,125 +5580,125 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B174" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G174" s="19"/>
+      <c r="B174" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G176" s="19"/>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="F177" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="G177" s="2" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B177" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G177" s="19" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>118</v>
+        <v>241</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G179" s="19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5683,10 +5706,10 @@
         <v>90</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>502</v>
+        <v>91</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>503</v>
+        <v>99</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>117</v>
@@ -5697,27 +5720,27 @@
         <v>90</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>353</v>
+        <v>92</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>320</v>
+        <v>502</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>116</v>
+        <v>503</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5725,10 +5748,10 @@
         <v>90</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>278</v>
+        <v>353</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>116</v>
@@ -5739,16 +5762,13 @@
         <v>90</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>118</v>
+        <v>321</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5756,27 +5776,30 @@
         <v>90</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>116</v>
+        <v>293</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5784,27 +5807,27 @@
         <v>90</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5812,27 +5835,27 @@
         <v>90</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5840,30 +5863,27 @@
         <v>90</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A192" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B192" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>409</v>
+      <c r="B192" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5871,27 +5891,30 @@
         <v>90</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>420</v>
+        <v>303</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>421</v>
+        <v>304</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>118</v>
+      <c r="B194" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5899,13 +5922,13 @@
         <v>90</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>94</v>
+        <v>420</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>118</v>
+        <v>421</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5913,10 +5936,10 @@
         <v>90</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>118</v>
@@ -5927,13 +5950,13 @@
         <v>90</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5941,13 +5964,13 @@
         <v>90</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>547</v>
+        <v>95</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5955,10 +5978,10 @@
         <v>90</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>585</v>
+        <v>96</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>117</v>
@@ -5969,47 +5992,41 @@
         <v>90</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>97</v>
+        <v>547</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>363</v>
+        <v>585</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F201" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>365</v>
+        <v>97</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F202" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>410</v>
+        <v>105</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6017,10 +6034,10 @@
         <v>90</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="F203" s="18" t="s">
         <v>376</v>
@@ -6029,100 +6046,103 @@
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F204" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="F205" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>542</v>
+        <v>286</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>623</v>
+        <v>98</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>299</v>
+        <v>542</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>117</v>
+        <v>543</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6130,13 +6150,13 @@
         <v>90</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>309</v>
+        <v>623</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F210" s="16" t="s">
-        <v>322</v>
+        <v>624</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6144,27 +6164,30 @@
         <v>90</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>117</v>
+        <v>310</v>
+      </c>
+      <c r="F212" s="16" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6172,27 +6195,27 @@
         <v>90</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F214" s="14" t="s">
-        <v>314</v>
+        <v>306</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6200,78 +6223,72 @@
         <v>90</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="19" t="s">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B216" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="C216" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19"/>
-      <c r="F216" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G216" s="19"/>
-    </row>
-    <row r="217" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B216" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>388</v>
+        <v>275</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F218" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G218" s="19"/>
+    </row>
+    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>118</v>
@@ -6282,33 +6299,67 @@
         <v>107</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C222" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F220" s="5" t="s">
+      <c r="F222" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="19" t="s">
+    <row r="223" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B221" s="19" t="s">
+      <c r="B223" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="C221" s="19" t="s">
+      <c r="C223" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="D221" s="19" t="s">
+      <c r="D223" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="E221" s="19"/>
-      <c r="F221" s="20" t="s">
+      <c r="E223" s="19"/>
+      <c r="F223" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G221" s="19"/>
+      <c r="G223" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A3D4C-57B2-4CBF-B010-8B73A6A93F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C981D83-7167-4B18-8E63-C494E518117D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="3900" windowWidth="28755" windowHeight="18330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="635">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -265,9 +265,6 @@
     <t>indst</t>
   </si>
   <si>
-    <t>BPEiC</t>
-  </si>
-  <si>
     <t>CtIEPpUESoS</t>
   </si>
   <si>
@@ -277,12 +274,6 @@
     <t>PERAC</t>
   </si>
   <si>
-    <t>RIFF</t>
-  </si>
-  <si>
-    <t>BAU Process Emissions in CO2e</t>
-  </si>
-  <si>
     <t>Cost to Implement Efficiency Policy per Unit Energy Saved or Shifted</t>
   </si>
   <si>
@@ -292,9 +283,6 @@
     <t>Process Emissions Reductions and Costs</t>
   </si>
   <si>
-    <t>Recipient Industrial Fuel Fractions</t>
-  </si>
-  <si>
     <t>plcy-schd</t>
   </si>
   <si>
@@ -577,18 +565,6 @@
     <t>Annual Retirement per Unit Increase in Relative Cost</t>
   </si>
   <si>
-    <t>MCGLT</t>
-  </si>
-  <si>
-    <t>Max Capacity Growth Lookup Table</t>
-  </si>
-  <si>
-    <t>NSDoNCC</t>
-  </si>
-  <si>
-    <t>Normalized Std Dev of New Capital Costs</t>
-  </si>
-  <si>
     <t>VoaSL</t>
   </si>
   <si>
@@ -916,12 +892,6 @@
     <t>BAU Historical New Vehicle Fuel Economy After Lifetime</t>
   </si>
   <si>
-    <t>MPNVbT</t>
-  </si>
-  <si>
-    <t>Max Percent New Vehicles by Technology</t>
-  </si>
-  <si>
     <t>BNVP</t>
   </si>
   <si>
@@ -931,12 +901,6 @@
     <t>medium (LDVs, HDVs, motorbikes), low (non-road vehicle types)</t>
   </si>
   <si>
-    <t>SDoVPbT</t>
-  </si>
-  <si>
-    <t>Standard Deviation of Vehicle Prices by Technology</t>
-  </si>
-  <si>
     <t>LCPC</t>
   </si>
   <si>
@@ -1429,9 +1393,6 @@
     <t>Percent Energy Savings from Retrofitting by Component, Retrofitting Cost per Unit Energy Saved</t>
   </si>
   <si>
-    <t>Process Emissions in CO2e, Share of Agriculture Process Emissions from Animals</t>
-  </si>
-  <si>
     <t>RHFF</t>
   </si>
   <si>
@@ -1441,9 +1402,6 @@
     <t>You want this policy lever to shift to a fuel other than hydrogen</t>
   </si>
   <si>
-    <t>You want this policy lever to be something other than a shift to a combination of electricity and hydrogen, based on each industry's electrification potential</t>
-  </si>
-  <si>
     <t>PoFDCtAE</t>
   </si>
   <si>
@@ -1642,12 +1600,6 @@
     <t>You wish to examine the model behavior while excluding indirect effects of the enabled policies on demand for energy-using services (mostly useful for isolating bugs, not intended to be used in production versions of the EPS)</t>
   </si>
   <si>
-    <t>ItICM</t>
-  </si>
-  <si>
-    <t>Industry to ISIC Code Map</t>
-  </si>
-  <si>
     <t>QSfCF</t>
   </si>
   <si>
@@ -1843,12 +1795,6 @@
     <t>Domestic Taxes on Production as Share of Value Added by ISIC Code</t>
   </si>
   <si>
-    <t>BNRbI</t>
-  </si>
-  <si>
-    <t>BAU Nonfuel Revenue by Industry</t>
-  </si>
-  <si>
     <t>SoCiIEPTtB</t>
   </si>
   <si>
@@ -1891,12 +1837,6 @@
     <t>Government and Household Expenditures by ISIC Code</t>
   </si>
   <si>
-    <t>SIOM</t>
-  </si>
-  <si>
-    <t>Standard Input Output Matrix</t>
-  </si>
-  <si>
     <t>SoBRCBbG</t>
   </si>
   <si>
@@ -1937,6 +1877,66 @@
   </si>
   <si>
     <t>BAU Fraction of CCS Potential Achieved by Electricity Sector, BAU Fraction of CCS Potential Achieved by Industry Sector</t>
+  </si>
+  <si>
+    <t>IFStFS</t>
+  </si>
+  <si>
+    <t>Industrial Fuels Subject to Fuel Shifting</t>
+  </si>
+  <si>
+    <t>You wish for the industrial fuel shifting policy lever to affect a different set of source (BAU) fuel types than the default set (which consists of the fossil fuels).</t>
+  </si>
+  <si>
+    <t>BPE</t>
+  </si>
+  <si>
+    <t>BAU Process Emissions</t>
+  </si>
+  <si>
+    <t>BAU Process Emissions, Share of Agriculture Process Emissions from Animals</t>
+  </si>
+  <si>
+    <t>TTS</t>
+  </si>
+  <si>
+    <t>Transportation Technology Shareweights</t>
+  </si>
+  <si>
+    <t>TTLE</t>
+  </si>
+  <si>
+    <t>Transportation Technology Logit Exponents</t>
+  </si>
+  <si>
+    <t>ETS</t>
+  </si>
+  <si>
+    <t>ETLE</t>
+  </si>
+  <si>
+    <t>Electricity Technology Logit Exponent</t>
+  </si>
+  <si>
+    <t>Electricity Technology Shareweights</t>
+  </si>
+  <si>
+    <t>FoPTaFbIC</t>
+  </si>
+  <si>
+    <t>Fractions of Products That are Fuels by ISIC Code</t>
+  </si>
+  <si>
+    <t>BObIC, BFPaT</t>
+  </si>
+  <si>
+    <t>FtPICM</t>
+  </si>
+  <si>
+    <t>Fuel to Producing ISIC Code Map</t>
+  </si>
+  <si>
+    <t>This variable should not be altered</t>
   </si>
 </sst>
 </file>
@@ -2498,319 +2498,319 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +2821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2854,13 +2854,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2868,15 +2868,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G2" s="32"/>
     </row>
@@ -2891,7 +2891,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2899,15 +2899,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G4" s="19"/>
     </row>
@@ -2922,7 +2922,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2936,7 +2936,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2944,16 +2944,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2967,10 +2967,10 @@
         <v>25</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2978,16 +2978,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3009,16 +3009,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3026,13 +3026,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3082,13 +3082,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3102,7 +3102,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3110,13 +3110,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3130,10 +3130,10 @@
         <v>31</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3147,7 +3147,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3161,10 +3161,10 @@
         <v>33</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
         <v>34</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3192,7 +3192,7 @@
         <v>35</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3200,16 +3200,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3217,16 +3217,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3234,13 +3234,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3248,13 +3248,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3262,15 +3262,15 @@
         <v>9</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="30" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G28" s="27"/>
     </row>
@@ -3279,15 +3279,15 @@
         <v>9</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G29" s="27"/>
     </row>
@@ -3296,17 +3296,17 @@
         <v>9</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G30" s="27"/>
     </row>
@@ -3315,17 +3315,17 @@
         <v>9</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G31" s="19"/>
     </row>
@@ -3334,17 +3334,17 @@
         <v>36</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G32" s="27"/>
     </row>
@@ -3356,13 +3356,13 @@
         <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3370,23 +3370,23 @@
         <v>36</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>5</v>
@@ -3397,223 +3397,223 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="36" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="38" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="36" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>42</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,13 +3635,13 @@
         <v>39</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3655,7 +3655,7 @@
         <v>43</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3663,32 +3663,32 @@
         <v>39</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="23" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3696,13 +3696,13 @@
         <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3710,13 +3710,13 @@
         <v>44</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3730,10 +3730,10 @@
         <v>57</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3741,13 +3741,13 @@
         <v>44</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,13 +3755,13 @@
         <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
         <v>58</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3783,16 +3783,16 @@
         <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3800,13 +3800,13 @@
         <v>44</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3814,16 +3814,16 @@
         <v>44</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>59</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3851,10 +3851,10 @@
         <v>60</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3862,13 +3862,13 @@
         <v>44</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3876,13 +3876,13 @@
         <v>44</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
         <v>61</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3910,10 +3910,10 @@
         <v>62</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3921,16 +3921,16 @@
         <v>44</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,13 +3938,13 @@
         <v>44</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3958,10 +3958,10 @@
         <v>63</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3972,14 +3972,14 @@
         <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3987,17 +3987,17 @@
         <v>44</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4005,16 +4005,16 @@
         <v>44</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4022,16 +4022,16 @@
         <v>44</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4039,16 +4039,16 @@
         <v>44</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4056,134 +4056,134 @@
         <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>484</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>485</v>
+        <v>64</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>596</v>
+        <v>358</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>211</v>
+        <v>470</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>181</v>
+        <v>580</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>116</v>
+        <v>202</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4191,13 +4191,13 @@
         <v>44</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>117</v>
+        <v>65</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,13 +4205,13 @@
         <v>44</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4219,13 +4219,13 @@
         <v>44</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4239,10 +4239,10 @@
         <v>66</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4250,13 +4250,13 @@
         <v>44</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4264,13 +4264,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4278,16 +4278,16 @@
         <v>44</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4295,16 +4295,16 @@
         <v>44</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4312,13 +4312,13 @@
         <v>44</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4326,16 +4326,16 @@
         <v>44</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4343,13 +4343,13 @@
         <v>44</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>67</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4371,148 +4371,148 @@
         <v>44</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="23" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G106" s="19"/>
     </row>
@@ -4521,15 +4521,15 @@
         <v>68</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
       <c r="F107" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G107" s="27"/>
     </row>
@@ -4538,16 +4538,16 @@
         <v>68</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4555,16 +4555,16 @@
         <v>68</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4578,10 +4578,10 @@
         <v>72</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4589,61 +4589,61 @@
         <v>68</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>629</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>384</v>
+        <v>70</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>478</v>
+        <v>373</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4651,16 +4651,16 @@
         <v>68</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4668,280 +4668,280 @@
         <v>68</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B118" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G118" s="27"/>
-    </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F118" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="D119" s="27"/>
+        <v>403</v>
+      </c>
+      <c r="D119" s="27" t="s">
+        <v>404</v>
+      </c>
       <c r="E119" s="27"/>
-      <c r="F119" s="37" t="s">
-        <v>116</v>
+      <c r="F119" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="G119" s="27"/>
     </row>
-    <row r="120" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="D121" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="E121" s="33"/>
-      <c r="F121" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G121" s="33"/>
-    </row>
-    <row r="122" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="B120" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G120" s="27"/>
+    </row>
+    <row r="121" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="E122" s="33"/>
+      <c r="F122" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G122" s="33"/>
     </row>
     <row r="123" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>117</v>
+        <v>433</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="D126" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B129" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G129" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="C126" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="G128" s="29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G129" s="24"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    </row>
+    <row r="130" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G130" s="24"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G131" s="27"/>
+      <c r="B131" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>77</v>
+        <v>618</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>82</v>
+        <v>619</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>465</v>
+        <v>620</v>
       </c>
       <c r="E132" s="27"/>
       <c r="F132" s="30" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="G132" s="27"/>
     </row>
@@ -4950,16 +4950,19 @@
         <v>76</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>245</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4967,13 +4970,13 @@
         <v>76</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4981,13 +4984,13 @@
         <v>76</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4995,13 +4998,13 @@
         <v>76</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5009,13 +5012,13 @@
         <v>76</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,32 +5026,33 @@
         <v>76</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>536</v>
+        <v>615</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="6" t="s">
-        <v>118</v>
+        <v>616</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5056,13 +5060,13 @@
         <v>76</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5070,16 +5074,16 @@
         <v>76</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="F141" s="30" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5087,13 +5091,13 @@
         <v>76</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5101,13 +5105,13 @@
         <v>76</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5115,13 +5119,13 @@
         <v>76</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5129,696 +5133,695 @@
         <v>76</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F146" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>469</v>
-      </c>
+      <c r="B146" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G146" s="27"/>
     </row>
     <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="D147" s="27"/>
       <c r="E147" s="27"/>
       <c r="F147" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G147" s="27"/>
     </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="27" t="s">
+    <row r="148" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B148" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G148" s="27"/>
-    </row>
-    <row r="149" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G149" s="19"/>
+      <c r="B148" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G148" s="19"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G149" s="27"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D150" s="27"/>
       <c r="E150" s="27"/>
       <c r="F150" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G150" s="27"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
+        <v>501</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
       <c r="F151" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G151" s="27"/>
+        <v>112</v>
+      </c>
+      <c r="G151" s="32"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="B152" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="B152" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
+      <c r="C152" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
       <c r="F152" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G152" s="32"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="G152" s="27"/>
+    </row>
+    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="D153" s="27"/>
+        <v>547</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>548</v>
+      </c>
       <c r="E153" s="27"/>
       <c r="F153" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G153" s="27"/>
     </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>562</v>
+        <v>517</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="D154" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="E154" s="27"/>
-      <c r="F154" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G154" s="27"/>
-    </row>
-    <row r="155" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="F154" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="B155" s="27" t="s">
-        <v>531</v>
-      </c>
-      <c r="C155" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="F155" s="37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="B155" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G155" s="32"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="B156" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G156" s="32"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="C156" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G156" s="27"/>
+    </row>
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="27"/>
       <c r="F157" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G157" s="27"/>
     </row>
     <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="D158" s="27"/>
+        <v>572</v>
+      </c>
+      <c r="D158" s="27" t="s">
+        <v>573</v>
+      </c>
       <c r="E158" s="27"/>
-      <c r="F158" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="F158" s="4"/>
       <c r="G158" s="27"/>
     </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>589</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="D159" s="27"/>
       <c r="E159" s="27"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="27"/>
+      <c r="F159" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G159" s="27" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="27" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G160" s="27"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27"/>
       <c r="F161" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G161" s="27"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27"/>
       <c r="F162" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G162" s="27"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27"/>
       <c r="F163" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G163" s="27"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27"/>
       <c r="F164" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G164" s="27"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>619</v>
+        <v>507</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>620</v>
+        <v>508</v>
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27"/>
-      <c r="F165" s="4" t="s">
-        <v>116</v>
+      <c r="F165" s="35" t="s">
+        <v>114</v>
       </c>
       <c r="G165" s="27"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="B166" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G166" s="27"/>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="B167" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="C167" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G167" s="19"/>
-    </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G166" s="19"/>
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F169" s="14" t="s">
-        <v>314</v>
+        <v>251</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>118</v>
+        <v>253</v>
+      </c>
+      <c r="F170" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F171" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="F172" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>118</v>
+        <v>256</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F175" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C176" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G176" s="19"/>
-    </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G175" s="19"/>
+    </row>
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G178" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B179" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G179" s="19" t="s">
-        <v>411</v>
+      <c r="C179" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>92</v>
+        <v>488</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>118</v>
+        <v>489</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>502</v>
+        <v>341</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>118</v>
+        <v>269</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>280</v>
@@ -5826,540 +5829,523 @@
       <c r="C188" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F188" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F188" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F189" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>422</v>
+        <v>291</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F192" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A194" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G194" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>409</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>420</v>
+        <v>89</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C196" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>96</v>
+        <v>531</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>104</v>
+        <v>532</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>585</v>
+        <v>93</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>116</v>
+        <v>352</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F203" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="F203" s="18" t="s">
-        <v>376</v>
-      </c>
       <c r="G203" s="2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F205" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>286</v>
+        <v>526</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>98</v>
+        <v>603</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>542</v>
+        <v>297</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>456</v>
+        <v>298</v>
+      </c>
+      <c r="F209" s="16" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>623</v>
+        <v>357</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>624</v>
+        <v>356</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F212" s="16" t="s">
-        <v>322</v>
+        <v>283</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>369</v>
+        <v>274</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>305</v>
+        <v>623</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>117</v>
+        <v>624</v>
+      </c>
+      <c r="F214" s="16" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>290</v>
+        <v>621</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>291</v>
+        <v>622</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F216" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F217" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B218" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="C218" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G218" s="19"/>
-    </row>
-    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G217" s="19"/>
+    </row>
+    <row r="218" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>388</v>
+        <v>476</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>490</v>
+        <v>301</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>311</v>
+        <v>418</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F221" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B223" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="C223" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="D223" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="E223" s="19"/>
-      <c r="F223" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G223" s="19"/>
+        <v>419</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D222" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="E222" s="19"/>
+      <c r="F222" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G222" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6387,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6395,7 +6381,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6403,7 +6389,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6411,31 +6397,31 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6443,7 +6429,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6451,15 +6437,15 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6467,23 +6453,23 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6491,47 +6477,47 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B15" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B05784C-0FDC-41E2-8282-7631576D3A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7264A9-402F-48B5-9DD1-92E0E280C99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21660" yWindow="930" windowWidth="31890" windowHeight="22095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="751">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -148,9 +148,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>Capital Cost of Eqpt to Sequester One Ton of CO2 per Year, CCS Total O&amp;M Cost per Ton Sequestered, Energy Use per Ton CO2 Sequestered</t>
-  </si>
-  <si>
     <t>dist-heat</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>BDPbES</t>
   </si>
   <si>
-    <t>BGCL</t>
-  </si>
-  <si>
     <t>BPHC</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>CCaMC</t>
   </si>
   <si>
-    <t>DPbES</t>
-  </si>
-  <si>
     <t>DRC</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>BAU Dispatch Priority by Electricity Source</t>
   </si>
   <si>
-    <t>BAU Generation Capacity Lifetime</t>
-  </si>
-  <si>
     <t>BAU Pumped Hydro Capacity</t>
   </si>
   <si>
@@ -217,9 +205,6 @@
     <t>Capacity Construction and Maintenance Costs</t>
   </si>
   <si>
-    <t>Dispatch Priority by Electricity Source</t>
-  </si>
-  <si>
     <t>Max Potential Capacity by Source</t>
   </si>
   <si>
@@ -547,12 +532,6 @@
     <t>BAU Transmission and Distribution Loss Percentage</t>
   </si>
   <si>
-    <t>ARpUIiRC</t>
-  </si>
-  <si>
-    <t>Annual Retirement per Unit Increase in Relative Cost</t>
-  </si>
-  <si>
     <t>VoaSL</t>
   </si>
   <si>
@@ -580,12 +559,6 @@
     <t>Cost per Unit Distributed Solar Capacity</t>
   </si>
   <si>
-    <t>TCAMRB</t>
-  </si>
-  <si>
-    <t>Transmission Capacity Across Modeled Region Border</t>
-  </si>
-  <si>
     <t>EIaE</t>
   </si>
   <si>
@@ -646,27 +619,9 @@
     <t>Reserve Margin</t>
   </si>
   <si>
-    <t>PTCF</t>
-  </si>
-  <si>
-    <t>Peak Time Capacity Factors</t>
-  </si>
-  <si>
-    <t>BECF</t>
-  </si>
-  <si>
     <t>SYC</t>
   </si>
   <si>
-    <t>BDSBaPCF</t>
-  </si>
-  <si>
-    <t>Boolean Do Suppliers Bid at Peak Capacity Factors</t>
-  </si>
-  <si>
-    <t>BAU Expected Capacity Factors</t>
-  </si>
-  <si>
     <t>PDiCECpDoC</t>
   </si>
   <si>
@@ -787,12 +742,6 @@
     <t>BAU LCFS Percentage</t>
   </si>
   <si>
-    <t>BMRESP</t>
-  </si>
-  <si>
-    <t>BAU Minimum Required EV Sales Percentage</t>
-  </si>
-  <si>
     <t>SYVbT</t>
   </si>
   <si>
@@ -922,12 +871,6 @@
     <t>BAU Subsidy for Thermal Fuels per Energy Unit Produced, BAU Subsidy per Unit Electricity Output, BAU Subsidy per Unit Electricity Capacity Built</t>
   </si>
   <si>
-    <t>FoTCAMRBtPF</t>
-  </si>
-  <si>
-    <t>Fraction of Transmission Capacity Across Modeled Region Border that Provides Flexibility</t>
-  </si>
-  <si>
     <t>BCSG</t>
   </si>
   <si>
@@ -1090,9 +1033,6 @@
     <t>You are modeling a region where power plants are dispatched based on non-market rules rather than by least marginal cost</t>
   </si>
   <si>
-    <t>You are modeling a region where power plants are dispatched based on non-market rules rather than by least marginal cost, and you are setting this policy lever to alter the BAU priorities</t>
-  </si>
-  <si>
     <t>You are modeling a region where power plants are dispatched based on non-market rules rather than by least marginal cost, and you are setting this policy lever to alter the BAU percentages</t>
   </si>
   <si>
@@ -1333,21 +1273,6 @@
     <t>You wish to cap the amount by which policies may increase the production of one or more fuel types</t>
   </si>
   <si>
-    <t>EoPPFTSwFP</t>
-  </si>
-  <si>
-    <t>Elasticity of Power Plant Fuel Type Shifting wrt Fuel Price</t>
-  </si>
-  <si>
-    <t>You are modeling a region where power plants can switch the type of fuel they burn in response to fuel price changes without significant plant modifications, such as switching between burning crude oil, heavy fuel oil, and diesel.</t>
-  </si>
-  <si>
-    <t>FSCaFoCC</t>
-  </si>
-  <si>
-    <t>Fuel Shifting Cost as Fraction of Construction Cost</t>
-  </si>
-  <si>
     <t>Process Emissions Reductions and Costs, Marginal Cost Definitions</t>
   </si>
   <si>
@@ -1381,21 +1306,12 @@
     <t>Rounding error is visible in final web app output graphs in near-zero pollutant amounts</t>
   </si>
   <si>
-    <t>BFoCPAbS</t>
-  </si>
-  <si>
-    <t>BAU Fraction of CCS Potential Achieved by Sector</t>
-  </si>
-  <si>
     <t>CCP</t>
   </si>
   <si>
     <t>CO2 Capture Potentials</t>
   </si>
   <si>
-    <t>CO2 Capture Potential by Electricity Source, CO2 Capture Potential by Industry</t>
-  </si>
-  <si>
     <t>AVMC</t>
   </si>
   <si>
@@ -1552,24 +1468,6 @@
     <t>Health Outcome Incidence per Ton Pollutant</t>
   </si>
   <si>
-    <t>BPEaCP</t>
-  </si>
-  <si>
-    <t>BAU Population Employment and Compensation Projections</t>
-  </si>
-  <si>
-    <t>Population, Employees, Employee Compensation</t>
-  </si>
-  <si>
-    <t>ELF</t>
-  </si>
-  <si>
-    <t>Equipment Load Factors</t>
-  </si>
-  <si>
-    <t>Equipment Load Factors by Sector, Equipment Load Factors for Vehicles, Equipment Load Factors for Building Components</t>
-  </si>
-  <si>
     <t>Cost per Unit Distributed Solar Capacity, Soft Costs per Unit Distributed Solar Capacity</t>
   </si>
   <si>
@@ -1732,9 +1630,6 @@
     <t>You wish to switch from the BAU plant retirement schedule to an alternative schedule you have specified in input data (rather than using the early retirement policy lever, which accelerates retirements and is additive to the BAU retirements)</t>
   </si>
   <si>
-    <t>BAU Fraction of CCS Potential Achieved by Electricity Sector, BAU Fraction of CCS Potential Achieved by Industry Sector</t>
-  </si>
-  <si>
     <t>IFStFS</t>
   </si>
   <si>
@@ -1765,18 +1660,6 @@
     <t>Transportation Technology Logit Exponents</t>
   </si>
   <si>
-    <t>ETS</t>
-  </si>
-  <si>
-    <t>ETLE</t>
-  </si>
-  <si>
-    <t>Electricity Technology Logit Exponent</t>
-  </si>
-  <si>
-    <t>Electricity Technology Shareweights</t>
-  </si>
-  <si>
     <t>FoPTaFbIC</t>
   </si>
   <si>
@@ -1876,12 +1759,6 @@
     <t>Annual Vehicle Licensing Registration and Property Tax Costs</t>
   </si>
   <si>
-    <t>DRCF</t>
-  </si>
-  <si>
-    <t>Demand Response Capacity Factor</t>
-  </si>
-  <si>
     <t>BDCTBA</t>
   </si>
   <si>
@@ -1927,12 +1804,6 @@
     <t>VAT or Sales Tax Rate</t>
   </si>
   <si>
-    <t>NSDoDC</t>
-  </si>
-  <si>
-    <t>Normalized Std Dev of Dispatch Costs</t>
-  </si>
-  <si>
     <t>BRCToEP</t>
   </si>
   <si>
@@ -1957,21 +1828,6 @@
     <t>Exogenous GDP Growth Rate Adjustment, Boolean Use Exogenous GDP Growth Rate Adjustment</t>
   </si>
   <si>
-    <t>BAU Grid Battery Storage Capacity, Potential Additional Grid Battery Storage Capacity, Start Year Grid Battery Storage Capacity, Grid Battery Daily Storage Duration</t>
-  </si>
-  <si>
-    <t>Electricity Technology Logit Exponent for Output, Electricity Technology Logit Exponent for Capacity</t>
-  </si>
-  <si>
-    <t>CRtPaL</t>
-  </si>
-  <si>
-    <t>Capacity Responses to Profits and Losses</t>
-  </si>
-  <si>
-    <t>BAU Pumped Hydro Capacity, Pumped Hydro Charging and Discharging Hours per Day</t>
-  </si>
-  <si>
     <t>HECF</t>
   </si>
   <si>
@@ -1987,9 +1843,6 @@
     <t>Repayment Period for Financed Electricity Sector Capital Costs</t>
   </si>
   <si>
-    <t>BAU Demand Response Capacity, Potential Additional Demand Response Capacity, Hours of DR Average Utility May Call Upon per Year, Average DR Hours per DR Event</t>
-  </si>
-  <si>
     <t>QSfHO</t>
   </si>
   <si>
@@ -2047,36 +1900,18 @@
     <t>Start Year Seasonal Expected Hourly Capacity Factors</t>
   </si>
   <si>
-    <t>Smoothing Time for Forecast Capacity Construction for Reliability</t>
-  </si>
-  <si>
-    <t>STfFCCfR</t>
-  </si>
-  <si>
     <t>SHELF</t>
   </si>
   <si>
     <t>Seasonal Hourly Equipment Load Factors</t>
   </si>
   <si>
-    <t>FoPNDtBAoT</t>
-  </si>
-  <si>
-    <t>Fraction of Predicted Net Demand to Build Ahead of Time</t>
-  </si>
-  <si>
     <t>Boolean Does This Plant Type Use Maximum Capacity Factor</t>
   </si>
   <si>
     <t>BDTPTUMCF</t>
   </si>
   <si>
-    <t>BPTBfRN</t>
-  </si>
-  <si>
-    <t>Boolean Plant Types Built for Reliability Needs</t>
-  </si>
-  <si>
     <t>Seasonal Hourly Equipment Load Factors, Days per Timeslice</t>
   </si>
   <si>
@@ -2215,12 +2050,6 @@
     <t>BAU Construction Cost per Unit Capacity, Annual Fixed O&amp;M Cost per Unit Capacity, Variable O&amp;M Cost per Unit Elec Output, Soft Costs per Unit Capacity, Annual CapEx per Unit Capacity, Spur Line Construction Cost per Unit Capacity</t>
   </si>
   <si>
-    <t>TCCpUNEG</t>
-  </si>
-  <si>
-    <t>Transmission Construction Cost per Unit New Electricity Generation</t>
-  </si>
-  <si>
     <t>DCCpUIiPL</t>
   </si>
   <si>
@@ -2359,21 +2188,12 @@
     <t>Demand-Altering Technology Assistance in RPS Compliance</t>
   </si>
   <si>
-    <t>FoIaEEUfDB</t>
-  </si>
-  <si>
-    <t>Fraction of Imported and Exported Electricity Used for Diurnal Balancing</t>
-  </si>
-  <si>
     <t>CCSTaSC</t>
   </si>
   <si>
     <t>CCS Transportation and Storage Cost</t>
   </si>
   <si>
-    <t>Capacity Response to Profits, Capacity Response to Losses, Grid Battery Response to Profits</t>
-  </si>
-  <si>
     <t>BSpUESttGbGB</t>
   </si>
   <si>
@@ -2405,6 +2225,66 @@
   </si>
   <si>
     <t>Grid Battery Percent Growth per Unit Net Revenue</t>
+  </si>
+  <si>
+    <t>CO2 Capture Potential by Electricity Source, CO2 Capture Potential by Industry,CO2 Capture Potential by Hydrogen Sector</t>
+  </si>
+  <si>
+    <t>BFoCPAbI</t>
+  </si>
+  <si>
+    <t>BAU Fraction of CCS Potential Achieved by Industry</t>
+  </si>
+  <si>
+    <t>BAU Fraction of CCS Potential Achieved by Industry Energy, BAU Fraction of CCS Potential Achieved by Industry Process</t>
+  </si>
+  <si>
+    <t>CC Capital Cost of Industrial Energy CCS Equipment, CC Capital Cost of Industrial Process CCS Equipment, CC Capital Cost of Industrial Hydrogen Sector CCS Equipment, CC CCS Total O&amp;M Cost per Ton Industrial Energy CO2 Sequestered, CC CCS Total O&amp;M Cost per Ton Industrial Process CO2 Sequestered, CC CCS Total O&amp;M Cost per Ton Hydrogen Sector CO2 Sequestered, CC Energy Use per Ton Industrial Energy CO2 Sequestered, CC Energy Use per Ton Industrial Process CO2 Sequestered, CC Energy Use per Ton Hydrogen Sector CO2 Sequestered</t>
+  </si>
+  <si>
+    <t>BwCCSSpM</t>
+  </si>
+  <si>
+    <t>Biomass with CCS Storage per MWh</t>
+  </si>
+  <si>
+    <t>Smoothing Time for CCS Capital Expenditures</t>
+  </si>
+  <si>
+    <t>SoCTaSCbRIC</t>
+  </si>
+  <si>
+    <t>Share of CCS Transportation and Storage Costs by Recipient ISIC Code</t>
+  </si>
+  <si>
+    <t>BAU Demand Response Capacity, Potential Additional Demand Response Capacity, Average DR Hours per DR Event</t>
+  </si>
+  <si>
+    <t>Start Year Grid Battery Storage Capacity, Grid Battery Daily Storage Duration</t>
+  </si>
+  <si>
+    <t>BAU CO2 Sequestered Globally, Start Year BAU CO2 Sequestered Globally</t>
+  </si>
+  <si>
+    <t>TCCpUNEC</t>
+  </si>
+  <si>
+    <t>Transmission Construction Cost per Unit New Electricity Capacity</t>
+  </si>
+  <si>
+    <t>BRZSPbS</t>
+  </si>
+  <si>
+    <t>BAU Required ZEV Sales Perc by Subregion</t>
+  </si>
+  <si>
+    <t>Employees, Employee Compensation</t>
+  </si>
+  <si>
+    <t>BEaCP</t>
+  </si>
+  <si>
+    <t>BAU Employment and Compensation Projections</t>
   </si>
 </sst>
 </file>
@@ -2906,319 +2786,319 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3229,11 +3109,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G287"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,13 +3142,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3276,18 +3156,18 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>595</v>
+        <v>556</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3295,16 +3175,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3312,13 +3192,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3332,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3340,16 +3220,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3357,15 +3237,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G7" s="17"/>
     </row>
@@ -3380,7 +3260,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,7 +3274,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3402,16 +3282,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3425,10 +3305,10 @@
         <v>25</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3436,13 +3316,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>690</v>
+        <v>635</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>691</v>
+        <v>636</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3450,16 +3330,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3473,7 +3353,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3481,16 +3361,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3504,7 +3384,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3518,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3532,7 +3412,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3540,13 +3420,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3560,7 +3440,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3568,13 +3448,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3588,10 +3468,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3605,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3619,10 +3499,10 @@
         <v>33</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3636,7 +3516,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3650,7 +3530,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3658,16 +3538,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3675,16 +3555,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3692,13 +3572,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3706,13 +3586,13 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3720,13 +3600,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3734,13 +3614,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3748,16 +3628,16 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3765,17 +3645,17 @@
         <v>9</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G34" s="17"/>
     </row>
@@ -3784,13 +3664,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>695</v>
+        <v>640</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>696</v>
+        <v>641</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3798,3872 +3678,3617 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>449</v>
+        <v>732</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>450</v>
+        <v>733</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>566</v>
+        <v>734</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="C38" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="B39" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>376</v>
+      <c r="F43" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>293</v>
+        <v>451</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>294</v>
+        <v>452</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>633</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>634</v>
+        <v>355</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>638</v>
+        <v>525</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>640</v>
+        <v>526</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>458</v>
+        <v>276</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E53" s="17"/>
+        <v>428</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="F53" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>428</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>108</v>
+        <v>431</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>740</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>110</v>
+        <v>42</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>197</v>
+        <v>562</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>196</v>
+        <v>563</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>683</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>351</v>
+        <v>684</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>770</v>
+        <v>625</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>713</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>56</v>
+        <v>714</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>665</v>
+        <v>616</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>666</v>
+        <v>617</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>645</v>
+        <v>53</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F73" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>782</v>
+        <v>722</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>783</v>
+        <v>723</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>680</v>
+        <v>703</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>759</v>
+        <v>720</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>226</v>
+        <v>721</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>780</v>
+        <v>164</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>781</v>
+        <v>165</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>686</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>743</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>744</v>
+        <v>56</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>529</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>777</v>
+        <v>716</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>563</v>
+        <v>672</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>643</v>
+        <v>321</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>108</v>
+        <v>322</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>773</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>285</v>
+        <v>177</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>729</v>
+        <v>300</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>110</v>
+        <v>301</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>340</v>
+        <v>688</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>52</v>
+        <v>699</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>186</v>
+        <v>700</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F95" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>285</v>
+        <v>628</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>756</v>
+        <v>618</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>758</v>
+        <v>619</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>577</v>
+        <v>690</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>775</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>675</v>
+        <v>204</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>676</v>
+        <v>216</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>684</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>110</v>
+        <v>58</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>296</v>
+        <v>697</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>109</v>
+        <v>698</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>436</v>
+        <v>193</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>437</v>
+        <v>194</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>789</v>
+        <v>601</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>539</v>
+        <v>211</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>540</v>
+        <v>212</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>192</v>
+        <v>710</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>110</v>
+        <v>626</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="B108" s="2" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>109</v>
+        <v>696</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="F113" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>676</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>355</v>
+        <v>677</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>204</v>
+        <v>674</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>205</v>
+        <v>675</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>754</v>
+        <v>620</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>202</v>
+        <v>744</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>109</v>
+        <v>745</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="E119" s="17"/>
+      <c r="F119" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>767</v>
+        <v>283</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>768</v>
+        <v>284</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>110</v>
+        <v>655</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>673</v>
+        <v>281</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="B123" s="2" t="s">
-        <v>752</v>
+        <v>287</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F123" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="B124" s="2" t="s">
-        <v>786</v>
+        <v>433</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>495</v>
+        <v>190</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>497</v>
+        <v>189</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>764</v>
+        <v>191</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F126" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="17" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B127" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G127" s="17"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>738</v>
+        <v>486</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>636</v>
+        <v>488</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>672</v>
+        <v>394</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>733</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>734</v>
+        <v>63</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>731</v>
+        <v>325</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>108</v>
+        <v>326</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>669</v>
+        <v>560</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>667</v>
+        <v>561</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>182</v>
+        <v>542</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>183</v>
+        <v>543</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>727</v>
+        <v>631</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="E136" s="17"/>
-      <c r="F136" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>384</v>
+        <v>632</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>109</v>
+        <v>324</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>461</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>199</v>
+        <v>390</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>198</v>
+        <v>352</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>200</v>
+        <v>402</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G144" s="17"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G146" s="24"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>65</v>
+        <v>374</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>108</v>
+        <v>381</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>599</v>
+        <v>376</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>581</v>
+        <v>377</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>110</v>
+        <v>384</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>686</v>
+        <v>378</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>109</v>
+        <v>385</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>69</v>
+        <v>386</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G154" s="17"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>424</v>
+        <v>214</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F155" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>430</v>
+        <v>215</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>425</v>
+        <v>535</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>431</v>
+        <v>536</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>426</v>
+        <v>692</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F157" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="B159" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F160" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>629</v>
+        <v>69</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F162" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="B163" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="C163" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="D163" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="E163" s="24"/>
-      <c r="F163" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G163" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>393</v>
+        <v>581</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>400</v>
+        <v>582</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>394</v>
+        <v>207</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>401</v>
+        <v>208</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>395</v>
+        <v>70</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>109</v>
+        <v>73</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>407</v>
+        <v>199</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>408</v>
+        <v>293</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G171" s="17"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>229</v>
+        <v>493</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F172" s="12" t="s">
-        <v>277</v>
+        <v>492</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G174" s="17"/>
     </row>
     <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>220</v>
+        <v>578</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F175" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>358</v>
+        <v>749</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>73</v>
+        <v>443</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>109</v>
+        <v>444</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>547</v>
+        <v>445</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>110</v>
+        <v>446</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F179" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>567</v>
+        <v>447</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>110</v>
+        <v>639</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>75</v>
+        <v>437</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F183" s="14" t="s">
         <v>439</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>213</v>
+        <v>547</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>109</v>
+        <v>548</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>308</v>
+        <v>496</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>309</v>
+        <v>545</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>110</v>
+        <v>546</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>310</v>
+        <v>519</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>627</v>
+        <v>517</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>628</v>
+        <v>518</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>527</v>
+        <v>438</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>543</v>
+        <v>482</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B191" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="C191" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="D191" s="17"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G191" s="17"/>
-    </row>
-    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>619</v>
+        <v>558</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>621</v>
+        <v>559</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="F193" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G194" s="17"/>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>440</v>
+        <v>217</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>108</v>
+        <v>218</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>475</v>
+        <v>316</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>108</v>
+        <v>317</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>692</v>
+        <v>219</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>108</v>
+        <v>220</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>506</v>
+        <v>221</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="F198" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>477</v>
+        <v>223</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>108</v>
+        <v>228</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>465</v>
+        <v>98</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>586</v>
+        <v>224</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F201" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>588</v>
+        <v>225</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>530</v>
+        <v>226</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F202" s="3"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>589</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G203" s="17"/>
     </row>
     <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>463</v>
+        <v>74</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>553</v>
+        <v>75</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>463</v>
+        <v>74</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>551</v>
+        <v>200</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>110</v>
+        <v>202</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G206" s="17" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>516</v>
+        <v>656</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>110</v>
+        <v>657</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F210" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="B211" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="C211" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G211" s="17"/>
-    </row>
-    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E213" s="2" t="s">
+      <c r="C238" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F238" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F213" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F215" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F219" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B220" s="17" t="s">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F239" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C220" s="17" t="s">
+    </row>
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F240" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D220" s="17"/>
-      <c r="E220" s="17"/>
-      <c r="F220" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G220" s="17"/>
-    </row>
-    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F221" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B223" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D223" s="17"/>
-      <c r="E223" s="17"/>
-      <c r="F223" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G223" s="17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F228" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F235" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F239" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F241" s="5" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>713</v>
+        <v>567</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>715</v>
+        <v>568</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>701</v>
+        <v>305</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F243" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="F243" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>716</v>
+        <v>307</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>688</v>
+        <v>249</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>108</v>
+        <v>250</v>
+      </c>
+      <c r="F245" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>660</v>
+        <v>240</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>661</v>
+        <v>241</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>268</v>
+        <v>724</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>316</v>
+        <v>85</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F248" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>377</v>
+        <v>458</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>109</v>
+        <v>459</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>85</v>
+        <v>665</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>93</v>
+        <v>666</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>86</v>
+        <v>523</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>94</v>
+        <v>524</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>110</v>
+        <v>256</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>110</v>
+        <v>668</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>491</v>
+        <v>244</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>109</v>
+        <v>245</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>528</v>
+        <v>651</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>718</v>
+        <v>236</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>110</v>
+        <v>237</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>89</v>
+        <v>540</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>108</v>
+        <v>541</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C261" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F262" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="F259" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F260" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C261" s="2" t="s">
+      <c r="C263" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F263" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B264" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D264" s="17"/>
+      <c r="E264" s="17"/>
+      <c r="F264" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G264" s="17"/>
+    </row>
+    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F261" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F262" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B263" s="2" t="s">
+      <c r="F265" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E263" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F266" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>721</v>
+      <c r="D267" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>557</v>
+        <v>365</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F268" s="5" t="s">
-        <v>110</v>
+        <v>366</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>272</v>
+        <v>583</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F269" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F272" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="F273" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F274" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F275" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F276" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F277" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="F279" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="F280" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B281" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C281" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="D281" s="17"/>
-      <c r="E281" s="17"/>
-      <c r="F281" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G281" s="17"/>
-    </row>
-    <row r="282" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F282" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F283" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F284" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F285" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F286" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B287" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C287" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="D287" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="E287" s="17"/>
-      <c r="F287" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G287" s="17"/>
+        <v>584</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B270" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E270" s="17"/>
+      <c r="F270" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G270" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7691,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7699,7 +7324,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7707,7 +7332,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7715,127 +7340,127 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7076F41-4AE3-4F66-8436-DA24B6EE8FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CC1E9-0943-416B-8E2D-F1243AAEE080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="758">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2300,6 +2300,12 @@
   </si>
   <si>
     <t>Dispatch Priority by Electricity Source</t>
+  </si>
+  <si>
+    <t>PVTStL</t>
+  </si>
+  <si>
+    <t>Policy Vehicle Types Subject to LCFS</t>
   </si>
 </sst>
 </file>
@@ -3121,11 +3127,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99:XFD99"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A250" sqref="A250:F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6979,35 +6985,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>443</v>
+        <v>756</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F250" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>644</v>
+        <v>443</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>101</v>
+        <v>444</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7015,10 +7021,10 @@
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>507</v>
+        <v>644</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>508</v>
+        <v>645</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>101</v>
@@ -7029,13 +7035,13 @@
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>245</v>
+        <v>507</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F253" s="14" t="s">
-        <v>258</v>
+        <v>508</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7043,13 +7049,13 @@
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>101</v>
+        <v>246</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7057,13 +7063,13 @@
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>646</v>
+        <v>298</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>100</v>
+        <v>297</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7071,13 +7077,13 @@
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>234</v>
+        <v>646</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>101</v>
+        <v>647</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7085,10 +7091,10 @@
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>630</v>
+        <v>234</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>631</v>
+        <v>235</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>101</v>
@@ -7099,13 +7105,13 @@
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>226</v>
+        <v>630</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F258" s="12" t="s">
-        <v>250</v>
+        <v>631</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7113,13 +7119,13 @@
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>524</v>
+        <v>226</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F259" s="14" t="s">
-        <v>258</v>
+        <v>227</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7127,16 +7133,13 @@
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F260" s="5" t="s">
-        <v>101</v>
+        <v>525</v>
+      </c>
+      <c r="F260" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7144,44 +7147,44 @@
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>224</v>
+        <v>522</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>225</v>
+        <v>523</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>648</v>
+        <v>224</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F262" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>588</v>
+        <v>649</v>
+      </c>
+      <c r="F263" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7189,98 +7192,101 @@
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F264" s="16" t="s">
+      <c r="F265" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="G264" s="2" t="s">
+      <c r="G265" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="17" t="s">
+    <row r="266" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B265" s="17" t="s">
+      <c r="B266" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C266" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D265" s="17"/>
-      <c r="E265" s="17"/>
-      <c r="F265" s="20" t="s">
+      <c r="D266" s="17"/>
+      <c r="E266" s="17"/>
+      <c r="F266" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G265" s="17"/>
-    </row>
-    <row r="266" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F266" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G266" s="17"/>
+    </row>
+    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>249</v>
+        <v>403</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7288,36 +7294,50 @@
         <v>90</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>565</v>
+        <v>351</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>567</v>
+        <v>352</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="17" t="s">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B271" s="17" t="s">
+      <c r="B271" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B272" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C271" s="17" t="s">
+      <c r="C272" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D271" s="17" t="s">
+      <c r="D272" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E271" s="17"/>
-      <c r="F271" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G271" s="17"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G272" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CC1E9-0943-416B-8E2D-F1243AAEE080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129B8F3-CD5F-469F-8564-550C965CF605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="761">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2239,12 +2239,6 @@
     <t>BAU Heat Rates, BAU Start Year Capacities</t>
   </si>
   <si>
-    <t>BRACP</t>
-  </si>
-  <si>
-    <t>BAU RPS Alternative Compliance Payment</t>
-  </si>
-  <si>
     <t>Annual CapEx per Unit Capacity, BAU Construction Cost per Unit Capacity, Annual Fixed O&amp;M Cost per Unit Capacity, Variable O&amp;M Cost per Unit Elec Output, BAU Soft Costs per Unit Capacity, Annual CapEx per Unit Capacity, Spur Line Construction Cost per Unit Capacity, BAU CCS Retrofit Costs per Unit Capacity</t>
   </si>
   <si>
@@ -2306,6 +2300,21 @@
   </si>
   <si>
     <t>Policy Vehicle Types Subject to LCFS</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>Future Year</t>
+  </si>
+  <si>
+    <t>If you change Initial Time, you need to update this file</t>
+  </si>
+  <si>
+    <t>RACP</t>
+  </si>
+  <si>
+    <t>RPS Alternative Compliance Payment</t>
   </si>
 </sst>
 </file>
@@ -3127,11 +3136,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A250" sqref="A250:F250"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,50 +4071,52 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="E59" s="17"/>
       <c r="F59" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>99</v>
-      </c>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>99</v>
@@ -4116,13 +4127,13 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>100</v>
+        <v>202</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4130,49 +4141,46 @@
         <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>546</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>547</v>
+        <v>42</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="21" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G65" s="17" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4180,61 +4188,61 @@
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>181</v>
+        <v>658</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>732</v>
+        <v>659</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>604</v>
+        <v>328</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>687</v>
+        <v>604</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>100</v>
+        <v>603</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4242,33 +4250,33 @@
         <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>175</v>
+        <v>687</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>595</v>
+        <v>175</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>250</v>
+        <v>174</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4276,58 +4284,61 @@
         <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>595</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>696</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>101</v>
+        <v>697</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4403,7 +4414,7 @@
         <v>52</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>101</v>
@@ -4414,10 +4425,10 @@
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>101</v>
@@ -4445,13 +4456,13 @@
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>101</v>
@@ -4504,10 +4515,10 @@
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>100</v>
@@ -4558,7 +4569,7 @@
         <v>664</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>101</v>
@@ -4617,10 +4628,10 @@
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>101</v>
@@ -4679,10 +4690,10 @@
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>100</v>
@@ -4800,7 +4811,7 @@
         <v>673</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>258</v>
@@ -5022,13 +5033,13 @@
         <v>43</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>751</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>99</v>
@@ -6382,37 +6393,40 @@
         <v>548</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="17" t="s">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="17" t="s">
+      <c r="B209" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B210" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C210" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
-      <c r="F209" s="22" t="s">
+      <c r="D210" s="17"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G209" s="17" t="s">
+      <c r="G210" s="17" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6420,13 +6434,13 @@
         <v>73</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>101</v>
+        <v>636</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6434,13 +6448,13 @@
         <v>73</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>74</v>
+        <v>551</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>100</v>
+        <v>552</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6448,41 +6462,41 @@
         <v>73</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>555</v>
+        <v>75</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>556</v>
+        <v>83</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>411</v>
+        <v>555</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>100</v>
+        <v>556</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6490,10 +6504,10 @@
         <v>73</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>680</v>
+        <v>411</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>681</v>
+        <v>412</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>100</v>
@@ -6504,13 +6518,13 @@
         <v>73</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>553</v>
+        <v>680</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>101</v>
+        <v>681</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6518,24 +6532,24 @@
         <v>73</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>283</v>
+        <v>553</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>99</v>
@@ -6546,27 +6560,27 @@
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F220" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>621</v>
+        <v>236</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>622</v>
+        <v>237</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>101</v>
@@ -6577,10 +6591,10 @@
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>101</v>
@@ -6591,10 +6605,10 @@
         <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>232</v>
+        <v>623</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>233</v>
+        <v>624</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>101</v>
@@ -6605,10 +6619,10 @@
         <v>73</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>101</v>
@@ -6619,13 +6633,10 @@
         <v>73</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>637</v>
+        <v>228</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>639</v>
+        <v>229</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>101</v>
@@ -6636,10 +6647,13 @@
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>101</v>
@@ -6650,13 +6664,13 @@
         <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>718</v>
+        <v>625</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>99</v>
+        <v>626</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6664,10 +6678,10 @@
         <v>73</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>99</v>
@@ -6678,10 +6692,10 @@
         <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>99</v>
@@ -6692,13 +6706,13 @@
         <v>73</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>100</v>
+        <v>613</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6706,44 +6720,44 @@
         <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>241</v>
+        <v>590</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>242</v>
+        <v>591</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>101</v>
+        <v>286</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6751,10 +6765,10 @@
         <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>101</v>
@@ -6765,10 +6779,10 @@
         <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>101</v>
@@ -6779,44 +6793,44 @@
         <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>627</v>
+        <v>79</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F237" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>448</v>
+        <v>627</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>100</v>
+        <v>628</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6824,41 +6838,41 @@
         <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>642</v>
+        <v>478</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>752</v>
+        <v>642</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>99</v>
+        <v>643</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6866,10 +6880,10 @@
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>80</v>
+        <v>750</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>88</v>
+        <v>751</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>99</v>
@@ -6880,30 +6894,27 @@
         <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F243" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>293</v>
+        <v>549</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F244" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>335</v>
+        <v>550</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6911,10 +6922,10 @@
         <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F245" s="16" t="s">
         <v>303</v>
@@ -6928,10 +6939,10 @@
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="F246" s="16" t="s">
         <v>303</v>
@@ -6940,35 +6951,38 @@
         <v>335</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="F247" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>698</v>
+        <v>230</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="F248" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6976,58 +6990,58 @@
         <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>81</v>
+        <v>698</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>756</v>
+        <v>81</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>757</v>
+        <v>89</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>443</v>
+        <v>754</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>644</v>
+        <v>443</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>101</v>
+        <v>444</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7035,10 +7049,10 @@
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>507</v>
+        <v>644</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>508</v>
+        <v>645</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>101</v>
@@ -7049,13 +7063,13 @@
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>245</v>
+        <v>507</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F254" s="14" t="s">
-        <v>258</v>
+        <v>508</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7063,13 +7077,13 @@
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>101</v>
+        <v>246</v>
+      </c>
+      <c r="F255" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7077,13 +7091,13 @@
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>646</v>
+        <v>298</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>100</v>
+        <v>297</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7091,13 +7105,13 @@
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>234</v>
+        <v>646</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>101</v>
+        <v>647</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7105,10 +7119,10 @@
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>630</v>
+        <v>234</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>631</v>
+        <v>235</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>101</v>
@@ -7119,13 +7133,13 @@
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>226</v>
+        <v>630</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F259" s="12" t="s">
-        <v>250</v>
+        <v>631</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7133,13 +7147,13 @@
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>524</v>
+        <v>226</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F260" s="14" t="s">
-        <v>258</v>
+        <v>227</v>
+      </c>
+      <c r="F260" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7147,16 +7161,13 @@
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F261" s="5" t="s">
-        <v>101</v>
+        <v>525</v>
+      </c>
+      <c r="F261" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7164,44 +7175,44 @@
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>224</v>
+        <v>522</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>225</v>
+        <v>523</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>648</v>
+        <v>224</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F263" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>588</v>
+        <v>649</v>
+      </c>
+      <c r="F264" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7209,98 +7220,101 @@
         <v>73</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F265" s="16" t="s">
+      <c r="F266" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="G265" s="2" t="s">
+      <c r="G266" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="17" t="s">
+    <row r="267" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B266" s="17" t="s">
+      <c r="B267" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C267" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D266" s="17"/>
-      <c r="E266" s="17"/>
-      <c r="F266" s="20" t="s">
+      <c r="D267" s="17"/>
+      <c r="E267" s="17"/>
+      <c r="F267" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G266" s="17"/>
-    </row>
-    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F267" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G267" s="17"/>
+    </row>
+    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>249</v>
+        <v>403</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7308,36 +7322,50 @@
         <v>90</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>565</v>
+        <v>351</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>567</v>
+        <v>352</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="17" t="s">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B272" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B273" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C273" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D272" s="17" t="s">
+      <c r="D273" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E272" s="17"/>
-      <c r="F272" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G272" s="17"/>
+      <c r="E273" s="17"/>
+      <c r="F273" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G273" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129B8F3-CD5F-469F-8564-550C965CF605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F78FFEB-53F7-446A-A303-A6DFABECBEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="4455" windowWidth="37485" windowHeight="17055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="759">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2102,12 +2102,6 @@
   </si>
   <si>
     <t>Fraction of EVs Used for Grid Balancing on Average Day, Fraction of EV Battery Capacity Used for Grid Balancing when EV is Used for Grid Balancing</t>
-  </si>
-  <si>
-    <t>DATAiRC</t>
-  </si>
-  <si>
-    <t>Demand-Altering Technology Assistance in RPS Compliance</t>
   </si>
   <si>
     <t>CCSTaSC</t>
@@ -3136,11 +3130,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,10 +3303,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>99</v>
@@ -3702,13 +3696,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>101</v>
@@ -3719,10 +3713,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>
@@ -3739,7 +3733,7 @@
         <v>417</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>101</v>
@@ -3756,7 +3750,7 @@
         <v>410</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>101</v>
@@ -3767,10 +3761,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>101</v>
@@ -3781,10 +3775,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>100</v>
@@ -3798,7 +3792,7 @@
         <v>575</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>100</v>
@@ -3853,7 +3847,7 @@
         <v>142</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3946,16 +3940,16 @@
         <v>413</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4082,7 +4076,7 @@
         <v>465</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>180</v>
@@ -4096,10 +4090,10 @@
         <v>413</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -4208,10 +4202,10 @@
         <v>181</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>100</v>
@@ -4290,7 +4284,7 @@
         <v>596</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>250</v>
@@ -4332,10 +4326,10 @@
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>99</v>
@@ -4366,10 +4360,10 @@
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>99</v>
@@ -4414,7 +4408,7 @@
         <v>52</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>101</v>
@@ -4425,10 +4419,10 @@
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>101</v>
@@ -4456,13 +4450,13 @@
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>101</v>
@@ -4473,27 +4467,27 @@
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>650</v>
+        <v>309</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>101</v>
+        <v>310</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4501,27 +4495,30 @@
         <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>309</v>
+        <v>750</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>310</v>
+        <v>751</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>752</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>100</v>
+        <v>171</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4529,16 +4526,16 @@
         <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>99</v>
+        <v>290</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4546,16 +4543,16 @@
         <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>288</v>
+        <v>663</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>289</v>
+        <v>664</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>100</v>
+        <v>739</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4563,154 +4560,151 @@
         <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>663</v>
+        <v>169</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>664</v>
+        <v>170</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>169</v>
+        <v>674</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>170</v>
+        <v>675</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>674</v>
+        <v>608</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>608</v>
+        <v>740</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>609</v>
+        <v>741</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>742</v>
+        <v>489</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>489</v>
+        <v>177</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>721</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>744</v>
+        <v>593</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>745</v>
+        <v>594</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>100</v>
+        <v>607</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4718,13 +4712,13 @@
         <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>99</v>
+        <v>598</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4732,10 +4726,10 @@
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>100</v>
@@ -4746,13 +4740,13 @@
         <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>665</v>
+        <v>48</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4760,72 +4754,72 @@
         <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>672</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>672</v>
+        <v>186</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>186</v>
+        <v>580</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>187</v>
+        <v>581</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>100</v>
@@ -4836,109 +4830,109 @@
         <v>43</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>580</v>
+        <v>203</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>203</v>
+        <v>684</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>204</v>
+        <v>685</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>205</v>
+        <v>686</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>684</v>
+        <v>601</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>685</v>
+        <v>602</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="B112" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>700</v>
+        <v>452</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>701</v>
+        <v>453</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>452</v>
+        <v>682</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>100</v>
+        <v>683</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4946,13 +4940,13 @@
         <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>258</v>
+        <v>655</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4960,10 +4954,10 @@
         <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>100</v>
@@ -4974,27 +4968,27 @@
         <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>656</v>
+        <v>575</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>657</v>
+        <v>576</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>100</v>
+        <v>653</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5002,27 +4996,30 @@
         <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>653</v>
+        <v>600</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>599</v>
+        <v>745</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>597</v>
+        <v>746</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>99</v>
@@ -5033,51 +5030,51 @@
         <v>43</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B123" s="17" t="s">
+      <c r="B122" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C122" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D122" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E123" s="17"/>
-      <c r="F123" s="21" t="s">
+      <c r="E122" s="17"/>
+      <c r="F122" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G123" s="17" t="s">
+      <c r="G122" s="17" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5085,117 +5082,117 @@
         <v>275</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>715</v>
+        <v>634</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>634</v>
+        <v>272</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>271</v>
+        <v>418</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>418</v>
+        <v>183</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F129" s="4" t="s">
+      <c r="B129" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G130" s="17"/>
+      <c r="G129" s="17"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>99</v>
@@ -5206,47 +5203,44 @@
         <v>55</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>380</v>
+        <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>381</v>
+        <v>59</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>99</v>
+        <v>314</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5254,10 +5248,13 @@
         <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>313</v>
+        <v>526</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>314</v>
+        <v>527</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>101</v>
@@ -5268,16 +5265,13 @@
         <v>55</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>101</v>
+        <v>545</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5285,58 +5279,61 @@
         <v>55</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>610</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>101</v>
+        <v>393</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5344,16 +5341,16 @@
         <v>55</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F141" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5361,131 +5358,128 @@
         <v>55</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>392</v>
+        <v>58</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F143" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>376</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F146" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E147" s="24"/>
+      <c r="F147" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="B148" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="D148" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E148" s="24"/>
-      <c r="F148" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G148" s="24"/>
+      <c r="G147" s="24"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>101</v>
+        <v>367</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5493,24 +5487,27 @@
         <v>357</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>100</v>
@@ -5521,95 +5518,95 @@
         <v>357</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B156" s="17" t="s">
+      <c r="B155" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C155" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="20" t="s">
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G156" s="17"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="17"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>206</v>
+        <v>519</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>250</v>
+        <v>520</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5617,16 +5614,16 @@
         <v>63</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>519</v>
+        <v>667</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>520</v>
+        <v>668</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>400</v>
+        <v>669</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5634,16 +5631,19 @@
         <v>63</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>667</v>
+        <v>197</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>100</v>
+        <v>198</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5651,19 +5651,13 @@
         <v>63</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F160" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5671,27 +5665,27 @@
         <v>63</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>326</v>
+        <v>64</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>64</v>
+        <v>497</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>100</v>
+        <v>498</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5699,13 +5693,16 @@
         <v>63</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>101</v>
+        <v>68</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5713,61 +5710,61 @@
         <v>63</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>65</v>
+        <v>563</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F164" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>516</v>
+        <v>199</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>100</v>
+        <v>69</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5775,16 +5772,13 @@
         <v>63</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F168" s="14" t="s">
-        <v>400</v>
+        <v>191</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5792,13 +5786,13 @@
         <v>63</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>100</v>
+        <v>280</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5806,10 +5800,10 @@
         <v>63</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>101</v>
@@ -5820,13 +5814,13 @@
         <v>63</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>101</v>
+        <v>282</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5834,13 +5828,13 @@
         <v>63</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>279</v>
+        <v>568</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>100</v>
+        <v>569</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5848,13 +5842,13 @@
         <v>63</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>568</v>
+        <v>477</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>101</v>
+        <v>476</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5862,58 +5856,61 @@
         <v>63</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="175" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F175" s="4" t="s">
+      <c r="B175" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B176" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G176" s="17"/>
-    </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G175" s="17"/>
+    </row>
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>560</v>
+        <v>719</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>561</v>
+        <v>720</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>562</v>
+        <v>718</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>99</v>
@@ -5924,13 +5921,10 @@
         <v>420</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>721</v>
+        <v>428</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>720</v>
+        <v>429</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>99</v>
@@ -5941,10 +5935,10 @@
         <v>420</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>99</v>
@@ -5955,10 +5949,10 @@
         <v>420</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>99</v>
@@ -5969,44 +5963,44 @@
         <v>420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>432</v>
+        <v>616</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>433</v>
+        <v>618</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>616</v>
+        <v>434</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>99</v>
@@ -6017,27 +6011,30 @@
         <v>420</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>422</v>
+        <v>531</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>99</v>
+        <v>532</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6045,65 +6042,62 @@
         <v>420</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F186" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F187" s="3"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>99</v>
+        <v>502</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6111,10 +6105,10 @@
         <v>420</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>101</v>
@@ -6125,10 +6119,10 @@
         <v>420</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>101</v>
@@ -6139,10 +6133,10 @@
         <v>420</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>101</v>
@@ -6153,106 +6147,106 @@
         <v>420</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>542</v>
+        <v>426</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>426</v>
+        <v>570</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F195" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>535</v>
+        <v>571</v>
+      </c>
+      <c r="F195" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>571</v>
-      </c>
+      <c r="B196" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
       <c r="F196" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G197" s="17"/>
-    </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G196" s="17"/>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F199" s="12" t="s">
-        <v>250</v>
+        <v>212</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6260,13 +6254,16 @@
         <v>93</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>101</v>
+        <v>214</v>
+      </c>
+      <c r="F200" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6274,44 +6271,41 @@
         <v>93</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F201" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>101</v>
+        <v>217</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6319,114 +6313,114 @@
         <v>93</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B206" s="17" t="s">
+      <c r="B205" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C205" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
-      <c r="F206" s="20" t="s">
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G206" s="17"/>
+      <c r="G205" s="17"/>
+    </row>
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>192</v>
+        <v>754</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>194</v>
+        <v>755</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="F209" s="6" t="s">
+      <c r="B209" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G209" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B210" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C210" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G210" s="17" t="s">
+      <c r="G209" s="17" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6434,13 +6428,13 @@
         <v>73</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>635</v>
+        <v>551</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>100</v>
+        <v>552</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6448,13 +6442,13 @@
         <v>73</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>551</v>
+        <v>74</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6462,41 +6456,41 @@
         <v>73</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>75</v>
+        <v>555</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>83</v>
+        <v>556</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>555</v>
+        <v>411</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F215" s="5" t="s">
-        <v>101</v>
+        <v>412</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6504,10 +6498,10 @@
         <v>73</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>411</v>
+        <v>680</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>412</v>
+        <v>681</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>100</v>
@@ -6518,13 +6512,13 @@
         <v>73</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>680</v>
+        <v>553</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>100</v>
+        <v>554</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6532,24 +6526,24 @@
         <v>73</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>553</v>
+        <v>283</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>99</v>
@@ -6560,27 +6554,27 @@
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>236</v>
+        <v>621</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>379</v>
+        <v>622</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>101</v>
@@ -6591,10 +6585,10 @@
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>101</v>
@@ -6605,10 +6599,10 @@
         <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>623</v>
+        <v>232</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>624</v>
+        <v>233</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>101</v>
@@ -6619,10 +6613,10 @@
         <v>73</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>101</v>
@@ -6633,10 +6627,13 @@
         <v>73</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>228</v>
+        <v>637</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>229</v>
+        <v>638</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>101</v>
@@ -6647,13 +6644,10 @@
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>101</v>
@@ -6664,13 +6658,13 @@
         <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>625</v>
+        <v>716</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>101</v>
+        <v>717</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6678,10 +6672,10 @@
         <v>73</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>718</v>
+        <v>640</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>719</v>
+        <v>641</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>99</v>
@@ -6692,10 +6686,10 @@
         <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>99</v>
@@ -6706,13 +6700,13 @@
         <v>73</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>99</v>
+        <v>591</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6720,44 +6714,44 @@
         <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>590</v>
+        <v>241</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>591</v>
+        <v>242</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F233" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>334</v>
+        <v>84</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6765,10 +6759,10 @@
         <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>101</v>
@@ -6779,10 +6773,10 @@
         <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>101</v>
@@ -6793,44 +6787,44 @@
         <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F236" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>79</v>
+        <v>627</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>627</v>
+        <v>448</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>101</v>
+        <v>449</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6838,41 +6832,41 @@
         <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>478</v>
+        <v>642</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>642</v>
+        <v>748</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F241" s="5" t="s">
-        <v>101</v>
+        <v>749</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6880,10 +6874,10 @@
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>750</v>
+        <v>80</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>751</v>
+        <v>88</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>99</v>
@@ -6894,27 +6888,30 @@
         <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>80</v>
+        <v>549</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>549</v>
+        <v>293</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F244" s="5" t="s">
-        <v>101</v>
+        <v>294</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6922,10 +6919,10 @@
         <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F245" s="16" t="s">
         <v>303</v>
@@ -6939,10 +6936,10 @@
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="F246" s="16" t="s">
         <v>303</v>
@@ -6951,38 +6948,35 @@
         <v>335</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F247" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>230</v>
+        <v>696</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F248" s="4" t="s">
-        <v>100</v>
+        <v>697</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6990,58 +6984,58 @@
         <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>698</v>
+        <v>81</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>81</v>
+        <v>752</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>89</v>
+        <v>753</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>754</v>
+        <v>443</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>443</v>
+        <v>644</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>377</v>
+        <v>645</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7049,10 +7043,10 @@
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>644</v>
+        <v>507</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>645</v>
+        <v>508</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>101</v>
@@ -7063,13 +7057,13 @@
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>507</v>
+        <v>245</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>101</v>
+        <v>246</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7077,13 +7071,13 @@
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F255" s="14" t="s">
-        <v>258</v>
+        <v>297</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7091,13 +7085,13 @@
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>298</v>
+        <v>646</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>101</v>
+        <v>647</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7105,13 +7099,13 @@
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>646</v>
+        <v>234</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7119,10 +7113,10 @@
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>234</v>
+        <v>630</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>235</v>
+        <v>631</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>101</v>
@@ -7133,13 +7127,13 @@
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>630</v>
+        <v>226</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>101</v>
+        <v>227</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7147,13 +7141,13 @@
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>226</v>
+        <v>524</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F260" s="12" t="s">
-        <v>250</v>
+        <v>525</v>
+      </c>
+      <c r="F260" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7161,13 +7155,16 @@
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F261" s="14" t="s">
-        <v>258</v>
+        <v>523</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7175,44 +7172,44 @@
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>522</v>
+        <v>224</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>224</v>
+        <v>648</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F263" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="F263" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>648</v>
+        <v>585</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F264" s="20" t="s">
-        <v>100</v>
+        <v>587</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7220,101 +7217,98 @@
         <v>73</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>99</v>
+        <v>589</v>
+      </c>
+      <c r="F265" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F266" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B267" s="17" t="s">
+      <c r="B266" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C266" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D267" s="17"/>
-      <c r="E267" s="17"/>
-      <c r="F267" s="20" t="s">
+      <c r="D266" s="17"/>
+      <c r="E266" s="17"/>
+      <c r="F266" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G267" s="17"/>
-    </row>
-    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G266" s="17"/>
+    </row>
+    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>403</v>
+        <v>249</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>101</v>
+        <v>352</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7322,50 +7316,36 @@
         <v>90</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>351</v>
+        <v>565</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>352</v>
+        <v>566</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
+    <row r="272" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B273" s="17" t="s">
+      <c r="B272" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C272" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D273" s="17" t="s">
+      <c r="D272" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E273" s="17"/>
-      <c r="F273" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G273" s="17"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G272" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F78FFEB-53F7-446A-A303-A6DFABECBEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7264A9-402F-48B5-9DD1-92E0E280C99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="4455" windowWidth="37485" windowHeight="17055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="751">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -166,12 +166,18 @@
     <t>elec</t>
   </si>
   <si>
+    <t>BDPbES</t>
+  </si>
+  <si>
     <t>BPHC</t>
   </si>
   <si>
     <t>BPMCCS</t>
   </si>
   <si>
+    <t>BTC</t>
+  </si>
+  <si>
     <t>CCaMC</t>
   </si>
   <si>
@@ -184,12 +190,18 @@
     <t>PMCCS</t>
   </si>
   <si>
+    <t>BAU Dispatch Priority by Electricity Source</t>
+  </si>
+  <si>
     <t>BAU Pumped Hydro Capacity</t>
   </si>
   <si>
     <t>BAU Policy Mandated Capacity Construction Schedule</t>
   </si>
   <si>
+    <t>BAU Transmission Capacity</t>
+  </si>
+  <si>
     <t>Capacity Construction and Maintenance Costs</t>
   </si>
   <si>
@@ -529,6 +541,12 @@
     <t>BDEQ</t>
   </si>
   <si>
+    <t>BAU Distributed Electricity Quantities</t>
+  </si>
+  <si>
+    <t>BAU Distributed Electricity Source Capacity, BAU Electricity Output from Distributed Sources</t>
+  </si>
+  <si>
     <t>EoDSDwSP</t>
   </si>
   <si>
@@ -577,6 +595,9 @@
     <t>n/a (control lever)</t>
   </si>
   <si>
+    <t>Battery Cost per Unit Capacity</t>
+  </si>
+  <si>
     <t>BCpUC</t>
   </si>
   <si>
@@ -598,6 +619,9 @@
     <t>Reserve Margin</t>
   </si>
   <si>
+    <t>SYC</t>
+  </si>
+  <si>
     <t>PDiCECpDoC</t>
   </si>
   <si>
@@ -712,6 +736,12 @@
     <t>Vehicle Buyer Discount Rate</t>
   </si>
   <si>
+    <t>BLP</t>
+  </si>
+  <si>
+    <t>BAU LCFS Percentage</t>
+  </si>
+  <si>
     <t>SYVbT</t>
   </si>
   <si>
@@ -865,6 +895,12 @@
     <t>Endogenous Learning</t>
   </si>
   <si>
+    <t>GBEtPR</t>
+  </si>
+  <si>
+    <t>Grid Battery Energy to Power Ratio</t>
+  </si>
+  <si>
     <t>PPRiFUfERoIF</t>
   </si>
   <si>
@@ -1069,6 +1105,12 @@
     <t>You want carbon pricing to only apply to CO2 emissions, exempting other GHGs (such as methane) and other climate-forcing pollutants (such as black carbon)</t>
   </si>
   <si>
+    <t>EoCSoEVMS</t>
+  </si>
+  <si>
+    <t>Effect of Charging Stations on EV Market Share</t>
+  </si>
+  <si>
     <t>You want to estimate induced foreign emissions</t>
   </si>
   <si>
@@ -1261,6 +1303,9 @@
     <t>Direct Air Capture Potential, Direct Air Capture Energy Intensity, Direct Air Capture Amortized CapEx and OM</t>
   </si>
   <si>
+    <t>Rounding error is visible in final web app output graphs in near-zero pollutant amounts</t>
+  </si>
+  <si>
     <t>CCP</t>
   </si>
   <si>
@@ -1462,6 +1507,9 @@
     <t>BAU Pretax Fuel Price by Sector, BAU Fuel Tax by Sector</t>
   </si>
   <si>
+    <t>GRA for Carbon Tax Revenue, GRA for Fuel Tax Revenue, GRA for EV Subsidy, GRA for Electricity Generation Subsidies, GRA for Electricity Capacity Construction Subsidies, GRA for Distributed Solar Subsidy, GRA for Fuel Subsidies, GRA for National Debt Interest, GRA for Remaining Government Cash Flow Changes</t>
+  </si>
+  <si>
     <t>Share of Capital and OM Spending by Recipient ISIC Code</t>
   </si>
   <si>
@@ -1678,6 +1726,12 @@
     <t>Heat Distribution Losses</t>
   </si>
   <si>
+    <t>BBSoEVP</t>
+  </si>
+  <si>
+    <t>BBSoEVP BAU Battery Share of Electric Vehicle Price</t>
+  </si>
+  <si>
     <t>You want to alter the end year.  The EPS supports end year dates out to 2100.</t>
   </si>
   <si>
@@ -1774,6 +1828,15 @@
     <t>Exogenous GDP Growth Rate Adjustment, Boolean Use Exogenous GDP Growth Rate Adjustment</t>
   </si>
   <si>
+    <t>HECF</t>
+  </si>
+  <si>
+    <t>Hourly Electricity Capacity Factors</t>
+  </si>
+  <si>
+    <t>Hourly Electricity Capacity Factors for Wind and Solar, Daily Electricity Capacity Factors for Hydro, Electricity Capacity Factors for Other Plant Types</t>
+  </si>
+  <si>
     <t>RPfFESCC</t>
   </si>
   <si>
@@ -1984,6 +2047,9 @@
     <t>Veh Revenue Share by Recipient ISIC Code</t>
   </si>
   <si>
+    <t>BAU Construction Cost per Unit Capacity, Annual Fixed O&amp;M Cost per Unit Capacity, Variable O&amp;M Cost per Unit Elec Output, Soft Costs per Unit Capacity, Annual CapEx per Unit Capacity, Spur Line Construction Cost per Unit Capacity</t>
+  </si>
+  <si>
     <t>DCCpUIiPL</t>
   </si>
   <si>
@@ -1996,6 +2062,15 @@
     <t>Start Year Peak Electricity Load</t>
   </si>
   <si>
+    <t>SYTaDOMC</t>
+  </si>
+  <si>
+    <t>Start Year Transmission and Distribution OM Costs</t>
+  </si>
+  <si>
+    <t>Start Year Transmission OM Costs, Start Year Distribution OM Costs</t>
+  </si>
+  <si>
     <t>SoTaDCCbIC</t>
   </si>
   <si>
@@ -2086,6 +2161,9 @@
     <t>Share of Forward Costs that Must be Covered to Prevent Retirement</t>
   </si>
   <si>
+    <t>Regional Availability Factor for Generation, Regional Availability Factor for Demand-Altering Technologies</t>
+  </si>
+  <si>
     <t>SES</t>
   </si>
   <si>
@@ -2104,6 +2182,12 @@
     <t>Fraction of EVs Used for Grid Balancing on Average Day, Fraction of EV Battery Capacity Used for Grid Balancing when EV is Used for Grid Balancing</t>
   </si>
   <si>
+    <t>DATAiRC</t>
+  </si>
+  <si>
+    <t>Demand-Altering Technology Assistance in RPS Compliance</t>
+  </si>
+  <si>
     <t>CCSTaSC</t>
   </si>
   <si>
@@ -2137,6 +2221,12 @@
     <t>Share of Electricity Imports by Hour, Share of Electricity Exports by Hour</t>
   </si>
   <si>
+    <t>GBPGpUNR</t>
+  </si>
+  <si>
+    <t>Grid Battery Percent Growth per Unit Net Revenue</t>
+  </si>
+  <si>
     <t>CO2 Capture Potential by Electricity Source, CO2 Capture Potential by Industry,CO2 Capture Potential by Hydrogen Sector</t>
   </si>
   <si>
@@ -2195,120 +2285,6 @@
   </si>
   <si>
     <t>BAU Employment and Compensation Projections</t>
-  </si>
-  <si>
-    <t>HESBCpUEC</t>
-  </si>
-  <si>
-    <t>Hybrid Electricity Source Battery Capacity per Unit Electricity Capacity</t>
-  </si>
-  <si>
-    <t>BDESC</t>
-  </si>
-  <si>
-    <t>BAU Distributed Electricity Source Capacity</t>
-  </si>
-  <si>
-    <t>Rounding error is visible in final web app output graphs in near-zero changes in pollutants</t>
-  </si>
-  <si>
-    <t>BESHFoFRV</t>
-  </si>
-  <si>
-    <t>Boolean Elec Suppliers Have Foresight of Future RPS Values</t>
-  </si>
-  <si>
-    <t>You want electricity suppliers to have foresight of future RPS values in order to ramp up more quickly to a given target</t>
-  </si>
-  <si>
-    <t>GRA for Carbon Tax Revenue, GRA for CCS Subsidy, GRA for Fuel Tax Revenue, GRA for EV Subsidy, GRA for Vehicle Battery Subsidy, GRA for Electricity Generation Subsidies, GRA for Electricity Capacity Construction Subsidies, GRA for Distributed Solar Subsidy, GRA for Fuel Subsidies, GRA for National Debt Interest, GRA for Remaining Government Cash Flow Changes</t>
-  </si>
-  <si>
-    <t>Battery Cost per Unit Capacity</t>
-  </si>
-  <si>
-    <t>Battery Power Cost per Unit Capacity, Battery Energy Cost per Unit Capacity, Battery Balance of System Cost as Share of First Year Cost</t>
-  </si>
-  <si>
-    <t>BAU Heat Rates, BAU Start Year Capacities</t>
-  </si>
-  <si>
-    <t>Annual CapEx per Unit Capacity, BAU Construction Cost per Unit Capacity, Annual Fixed O&amp;M Cost per Unit Capacity, Variable O&amp;M Cost per Unit Elec Output, BAU Soft Costs per Unit Capacity, Annual CapEx per Unit Capacity, Spur Line Construction Cost per Unit Capacity, BAU CCS Retrofit Costs per Unit Capacity</t>
-  </si>
-  <si>
-    <t>CDRDfRCP</t>
-  </si>
-  <si>
-    <t>Clean Dispatchable Resource Demand for Reliability Curve Parameters</t>
-  </si>
-  <si>
-    <t>CSC</t>
-  </si>
-  <si>
-    <t>Capacity Supply Curve</t>
-  </si>
-  <si>
-    <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year</t>
-  </si>
-  <si>
-    <t>Electricity Dispatch Weibull Parameter A, Electricity Dispatch Weibull Parameter B</t>
-  </si>
-  <si>
-    <t>GBCGpUNR</t>
-  </si>
-  <si>
-    <t>Grid Battery Capacity Growth per Unit Net Revenue</t>
-  </si>
-  <si>
-    <t>HOC</t>
-  </si>
-  <si>
-    <t>Hydro Opportunity Cost</t>
-  </si>
-  <si>
-    <t>Regional Availability Factor for Generation, Regional Availability Factor for Capacity, Regional Availability Factor for Demand-Altering Technologies</t>
-  </si>
-  <si>
-    <t>SYTaDC</t>
-  </si>
-  <si>
-    <t>Start Year Transmission and Distribution Costs</t>
-  </si>
-  <si>
-    <t>Start Year Transmission Capital Costs, Start Year Distribution Capital Costs, Start Year Transmission OM Costs, Start Year Distribution OM Costs</t>
-  </si>
-  <si>
-    <t>FoVBPD</t>
-  </si>
-  <si>
-    <t>Fraction of Vehicle Batteries Produced Domestically</t>
-  </si>
-  <si>
-    <t>DPbES</t>
-  </si>
-  <si>
-    <t>Dispatch Priority by Electricity Source</t>
-  </si>
-  <si>
-    <t>PVTStL</t>
-  </si>
-  <si>
-    <t>Policy Vehicle Types Subject to LCFS</t>
-  </si>
-  <si>
-    <t>FY</t>
-  </si>
-  <si>
-    <t>Future Year</t>
-  </si>
-  <si>
-    <t>If you change Initial Time, you need to update this file</t>
-  </si>
-  <si>
-    <t>RACP</t>
-  </si>
-  <si>
-    <t>RPS Alternative Compliance Payment</t>
   </si>
 </sst>
 </file>
@@ -2422,7 +2398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2480,6 +2456,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2797,7 +2776,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,319 +2786,319 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3130,11 +3109,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,13 +3142,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3177,18 +3156,18 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>541</v>
+        <v>103</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3196,16 +3175,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,44 +3192,44 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>582</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>603</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>100</v>
+        <v>604</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3258,15 +3237,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G7" s="17"/>
     </row>
@@ -3281,7 +3260,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3295,21 +3274,24 @@
         <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>723</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>724</v>
+        <v>169</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3323,10 +3305,10 @@
         <v>25</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3334,13 +3316,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3348,16 +3330,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3371,7 +3353,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3379,16 +3361,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3402,7 +3384,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3416,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3430,7 +3412,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3438,13 +3420,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3458,7 +3440,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3466,13 +3448,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3486,10 +3468,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3503,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3517,10 +3499,10 @@
         <v>33</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3534,7 +3516,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3548,7 +3530,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3556,16 +3538,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3573,16 +3555,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3590,13 +3572,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3604,13 +3586,13 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3618,13 +3600,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3632,13 +3614,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3646,16 +3628,16 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3663,17 +3645,17 @@
         <v>9</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G34" s="17"/>
     </row>
@@ -3682,13 +3664,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3696,16 +3678,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3713,13 +3695,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -3730,13 +3712,13 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3744,16 +3726,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3761,13 +3743,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3775,13 +3757,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3789,18 +3771,18 @@
         <v>36</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -3809,311 +3791,306 @@
         <v>6</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>324</v>
+        <v>575</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>325</v>
+        <v>576</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>557</v>
+        <v>451</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>558</v>
+        <v>452</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>251</v>
+        <v>525</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>252</v>
+        <v>526</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>726</v>
+        <v>276</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>727</v>
+        <v>277</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>728</v>
+        <v>528</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>509</v>
+        <v>590</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>510</v>
+        <v>591</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>512</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>178</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>577</v>
+        <v>653</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>413</v>
+        <v>38</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>464</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>99</v>
+        <v>42</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4121,122 +4098,125 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>201</v>
+        <v>562</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>546</v>
+        <v>683</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>658</v>
+        <v>340</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>328</v>
+        <v>625</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>604</v>
+        <v>713</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>101</v>
+        <v>714</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4244,33 +4224,30 @@
         <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>687</v>
+        <v>181</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
+        <v>616</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>320</v>
+        <v>617</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4278,95 +4255,92 @@
         <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>595</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>722</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>695</v>
+        <v>703</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>677</v>
+        <v>720</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>203</v>
+        <v>721</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>692</v>
+        <v>164</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>693</v>
+        <v>165</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4374,13 +4348,13 @@
         <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4388,137 +4362,140 @@
         <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>733</v>
+        <v>671</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>734</v>
+        <v>529</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>513</v>
+        <v>716</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>738</v>
+        <v>673</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>650</v>
+        <v>321</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>751</v>
+        <v>301</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>688</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>99</v>
+        <v>689</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4526,33 +4503,33 @@
         <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>101</v>
+        <v>701</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4560,16 +4537,13 @@
         <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>169</v>
+        <v>629</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>99</v>
+        <v>630</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,16 +4551,13 @@
         <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>100</v>
+        <v>730</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4594,75 +4565,78 @@
         <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>608</v>
+        <v>505</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>740</v>
+        <v>183</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>489</v>
+        <v>598</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>490</v>
+        <v>599</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>177</v>
+        <v>614</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>721</v>
+        <v>627</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>100</v>
+        <v>628</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4670,27 +4644,27 @@
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>742</v>
+        <v>618</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>743</v>
+        <v>619</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>593</v>
+        <v>690</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>594</v>
+        <v>691</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4698,13 +4672,13 @@
         <v>43</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>606</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>607</v>
+        <v>57</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4712,41 +4686,47 @@
         <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>598</v>
+        <v>216</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>665</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>48</v>
+        <v>697</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>99</v>
+        <v>698</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4754,171 +4734,165 @@
         <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>49</v>
+        <v>601</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>672</v>
+        <v>211</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>673</v>
+        <v>212</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>186</v>
+        <v>710</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>580</v>
+        <v>622</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>100</v>
+        <v>623</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B108" s="2" t="s">
-        <v>203</v>
+        <v>695</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>685</v>
+        <v>727</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>601</v>
+        <v>467</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>99</v>
+        <v>469</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B111" s="2" t="s">
-        <v>670</v>
+        <v>707</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>452</v>
+        <v>681</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>454</v>
+        <v>682</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4926,2426 +4900,2395 @@
         <v>43</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>682</v>
+        <v>593</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>99</v>
+      <c r="B119" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="E119" s="17"/>
+      <c r="F119" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>745</v>
+        <v>279</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>746</v>
+        <v>280</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>99</v>
+        <v>743</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>714</v>
+        <v>283</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="E122" s="17"/>
-      <c r="F122" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>713</v>
+        <v>288</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>100</v>
+        <v>434</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>271</v>
+        <v>190</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>418</v>
+        <v>191</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G127" s="17"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>275</v>
+        <v>59</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>184</v>
+        <v>486</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G129" s="17"/>
+        <v>487</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>471</v>
+        <v>394</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>473</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>474</v>
+        <v>63</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>475</v>
+        <v>278</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>560</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>268</v>
+        <v>561</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>313</v>
+        <v>542</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>314</v>
+        <v>543</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>526</v>
+        <v>631</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>544</v>
+        <v>61</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>99</v>
+        <v>64</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>610</v>
+        <v>323</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>100</v>
+        <v>324</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>404</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>142</v>
+        <v>407</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>101</v>
+        <v>408</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F140" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F141" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F142" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>58</v>
+        <v>402</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>62</v>
+        <v>403</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>388</v>
+        <v>588</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="B147" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E147" s="24"/>
-      <c r="F147" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G147" s="24"/>
+        <v>589</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G146" s="24"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>101</v>
+        <v>381</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>368</v>
+        <v>383</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F153" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G155" s="17"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G154" s="17"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>206</v>
+        <v>535</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>250</v>
+        <v>536</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>519</v>
+        <v>692</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>520</v>
+        <v>693</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>400</v>
+        <v>694</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>667</v>
+        <v>205</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>100</v>
+        <v>206</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>197</v>
+        <v>338</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F159" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G159" s="2" t="s">
         <v>339</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>326</v>
+        <v>68</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>64</v>
+        <v>513</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>100</v>
+        <v>514</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>497</v>
+        <v>69</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>65</v>
+        <v>532</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F163" s="16" t="s">
-        <v>303</v>
+        <v>533</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>345</v>
+        <v>534</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>516</v>
+        <v>207</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>400</v>
+        <v>199</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>100</v>
+        <v>292</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>101</v>
+        <v>294</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>279</v>
+        <v>586</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>100</v>
+        <v>587</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>568</v>
+        <v>493</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>101</v>
+        <v>492</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G175" s="17"/>
-    </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G174" s="17"/>
+    </row>
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>560</v>
+        <v>749</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>562</v>
+        <v>748</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>719</v>
+        <v>443</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>718</v>
+        <v>444</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>432</v>
+        <v>637</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>433</v>
+        <v>639</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>616</v>
+        <v>449</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F183" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="B184" s="2" t="s">
-        <v>422</v>
+        <v>547</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>99</v>
+        <v>548</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F185" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F186" s="3"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>99</v>
+        <v>518</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>501</v>
+        <v>438</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>469</v>
+        <v>558</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>542</v>
+        <v>441</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F193" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F193" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G194" s="17"/>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F194" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F195" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
-      <c r="F196" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G196" s="17"/>
+      <c r="F196" s="12" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F198" s="12" t="s">
-        <v>250</v>
+        <v>222</v>
+      </c>
+      <c r="F198" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F199" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F200" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>346</v>
+      <c r="F200" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F202" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F203" s="3" t="s">
+      <c r="B203" s="17" t="s">
         <v>99</v>
       </c>
+      <c r="C203" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G203" s="17"/>
     </row>
     <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F204" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B205" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17"/>
-      <c r="F205" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G205" s="17"/>
-    </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G206" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>192</v>
+        <v>656</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>548</v>
+        <v>657</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>754</v>
+        <v>569</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B209" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
-      <c r="F209" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G209" s="17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>74</v>
+        <v>426</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>75</v>
+        <v>705</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>411</v>
+        <v>295</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>680</v>
+        <v>564</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>681</v>
+        <v>565</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>553</v>
+        <v>266</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>236</v>
+        <v>642</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>379</v>
+        <v>643</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>623</v>
+        <v>242</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>624</v>
+        <v>243</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>228</v>
+        <v>658</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>229</v>
+        <v>659</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>660</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>625</v>
+        <v>746</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F226" s="5" t="s">
-        <v>101</v>
+        <v>747</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>716</v>
+        <v>661</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>717</v>
+        <v>662</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>99</v>
+      <c r="F229" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>590</v>
+        <v>251</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>591</v>
+        <v>252</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>334</v>
+        <v>358</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>748</v>
+        <v>84</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>749</v>
+        <v>92</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>549</v>
+        <v>305</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F243" s="5" t="s">
-        <v>101</v>
+        <v>306</v>
+      </c>
+      <c r="F243" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="F244" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="F245" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F246" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>230</v>
+        <v>724</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>100</v>
+        <v>725</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>696</v>
+        <v>85</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F248" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>100</v>
+        <v>459</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>752</v>
+        <v>665</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>377</v>
+        <v>524</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>644</v>
+        <v>255</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>101</v>
+        <v>256</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>507</v>
+        <v>310</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>508</v>
+        <v>309</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>245</v>
+        <v>667</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F254" s="14" t="s">
-        <v>258</v>
+        <v>668</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>100</v>
+        <v>652</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>101</v>
+        <v>237</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>101</v>
+        <v>541</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>226</v>
+        <v>538</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F259" s="12" t="s">
-        <v>250</v>
+        <v>539</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>524</v>
+        <v>232</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F260" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F261" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>224</v>
+        <v>669</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+      <c r="F262" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>648</v>
+        <v>607</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F263" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>588</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="F263" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B264" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D264" s="17"/>
+      <c r="E264" s="17"/>
+      <c r="F264" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G264" s="17"/>
     </row>
     <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>586</v>
+        <v>95</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F265" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B266" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C266" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D266" s="17"/>
-      <c r="E266" s="17"/>
-      <c r="F266" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G266" s="17"/>
-    </row>
-    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F268" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>247</v>
+        <v>583</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>248</v>
+        <v>584</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B272" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="C272" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="D272" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="E272" s="17"/>
-      <c r="F272" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G272" s="17"/>
+        <v>585</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B270" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E270" s="17"/>
+      <c r="F270" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G270" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7373,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7381,7 +7324,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7389,7 +7332,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7397,31 +7340,31 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7429,7 +7372,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7437,87 +7380,87 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F78FFEB-53F7-446A-A303-A6DFABECBEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB7B22F-00E2-4A6E-AEC9-3FB51C71D3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="4455" windowWidth="37485" windowHeight="17055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18260" yWindow="1660" windowWidth="17280" windowHeight="9670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="758">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2128,15 +2128,6 @@
     <t>Non-Battery Portion of New Vehicle Prices</t>
   </si>
   <si>
-    <t>SoEIaEbH</t>
-  </si>
-  <si>
-    <t>Share of Electricity Imports and Exports by Hour</t>
-  </si>
-  <si>
-    <t>Share of Electricity Imports by Hour, Share of Electricity Exports by Hour</t>
-  </si>
-  <si>
     <t>CO2 Capture Potential by Electricity Source, CO2 Capture Potential by Industry,CO2 Capture Potential by Hydrogen Sector</t>
   </si>
   <si>
@@ -2309,6 +2300,12 @@
   </si>
   <si>
     <t>RPS Alternative Compliance Payment</t>
+  </si>
+  <si>
+    <t>MaMHEIaE</t>
+  </si>
+  <si>
+    <t>Max and Min Hourly Electriicty Imports and Exports</t>
   </si>
 </sst>
 </file>
@@ -2800,82 +2797,82 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>99</v>
       </c>
@@ -2883,32 +2880,32 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>250</v>
       </c>
@@ -2916,17 +2913,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>101</v>
       </c>
@@ -2934,42 +2931,42 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>100</v>
       </c>
@@ -2977,84 +2974,84 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>258</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>142</v>
       </c>
@@ -3062,62 +3059,62 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -3132,24 +3129,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="67" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="54" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3172,7 +3169,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3191,7 +3188,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3208,7 +3205,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3222,7 +3219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3239,7 +3236,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3253,7 +3250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -3270,7 +3267,7 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3284,7 +3281,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3298,21 +3295,21 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3329,7 +3326,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -3343,7 +3340,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -3360,7 +3357,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -3374,7 +3371,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -3391,7 +3388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -3405,7 +3402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -3433,7 +3430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3447,7 +3444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3461,7 +3458,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -3492,7 +3489,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -3506,7 +3503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -3523,7 +3520,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -3537,7 +3534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -3551,7 +3548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -3568,7 +3565,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -3585,7 +3582,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -3599,7 +3596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -3613,7 +3610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -3627,7 +3624,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -3641,7 +3638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -3658,7 +3655,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
@@ -3677,7 +3674,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -3691,38 +3688,38 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -3733,13 +3730,13 @@
         <v>417</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -3750,13 +3747,13 @@
         <v>410</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -3770,21 +3767,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>36</v>
       </c>
@@ -3792,13 +3789,13 @@
         <v>575</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>172</v>
       </c>
@@ -3812,7 +3809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>172</v>
       </c>
@@ -3831,7 +3828,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>485</v>
       </c>
@@ -3847,10 +3844,10 @@
         <v>142</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>413</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>413</v>
       </c>
@@ -3884,7 +3881,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>413</v>
       </c>
@@ -3901,7 +3898,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>413</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>413</v>
       </c>
@@ -3935,24 +3932,24 @@
         <v>333</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>413</v>
       </c>
@@ -3969,7 +3966,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>413</v>
       </c>
@@ -3986,7 +3983,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>413</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>413</v>
       </c>
@@ -4020,7 +4017,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>413</v>
       </c>
@@ -4037,7 +4034,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>413</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>413</v>
       </c>
@@ -4065,7 +4062,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>413</v>
       </c>
@@ -4076,7 +4073,7 @@
         <v>465</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>180</v>
@@ -4085,15 +4082,15 @@
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>413</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -4102,7 +4099,7 @@
       </c>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
@@ -4116,7 +4113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -4130,7 +4127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>38</v>
       </c>
@@ -4144,7 +4141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>38</v>
       </c>
@@ -4158,7 +4155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
         <v>38</v>
       </c>
@@ -4177,7 +4174,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>43</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
@@ -4202,16 +4199,16 @@
         <v>181</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
@@ -4225,7 +4222,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
@@ -4239,7 +4236,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>43</v>
       </c>
@@ -4256,7 +4253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
@@ -4273,7 +4270,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>43</v>
       </c>
@@ -4284,13 +4281,13 @@
         <v>596</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
@@ -4335,7 +4332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
@@ -4355,7 +4352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
@@ -4369,7 +4366,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
@@ -4383,7 +4380,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>43</v>
       </c>
@@ -4397,7 +4394,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
@@ -4408,27 +4405,27 @@
         <v>52</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
@@ -4445,24 +4442,24 @@
         <v>515</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
@@ -4476,7 +4473,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
@@ -4490,21 +4487,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
@@ -4515,13 +4512,13 @@
         <v>171</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
@@ -4538,7 +4535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>43</v>
       </c>
@@ -4549,13 +4546,13 @@
         <v>664</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
@@ -4572,7 +4569,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>43</v>
       </c>
@@ -4589,7 +4586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -4603,21 +4600,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>43</v>
       </c>
@@ -4628,13 +4625,13 @@
         <v>490</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
@@ -4651,35 +4648,35 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
@@ -4693,7 +4690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>43</v>
       </c>
@@ -4707,204 +4704,201 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>597</v>
+        <v>756</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>665</v>
+        <v>597</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>666</v>
+        <v>598</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>48</v>
+        <v>665</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>672</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>186</v>
+        <v>672</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>580</v>
+        <v>186</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>581</v>
+        <v>187</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>203</v>
+        <v>580</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>684</v>
+        <v>203</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>685</v>
+        <v>204</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>686</v>
+        <v>205</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F112" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>43</v>
       </c>
@@ -4921,7 +4915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>43</v>
       </c>
@@ -4935,7 +4929,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>43</v>
       </c>
@@ -4949,7 +4943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>43</v>
       </c>
@@ -4963,7 +4957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
@@ -4977,7 +4971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>43</v>
       </c>
@@ -4991,7 +4985,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>43</v>
       </c>
@@ -5008,38 +5002,38 @@
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="17" t="s">
         <v>43</v>
       </c>
@@ -5060,7 +5054,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>275</v>
       </c>
@@ -5071,13 +5065,13 @@
         <v>270</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>275</v>
       </c>
@@ -5094,7 +5088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>275</v>
       </c>
@@ -5108,7 +5102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>275</v>
       </c>
@@ -5122,7 +5116,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>275</v>
       </c>
@@ -5136,7 +5130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>275</v>
       </c>
@@ -5150,7 +5144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="17" t="s">
         <v>275</v>
       </c>
@@ -5167,7 +5161,7 @@
       </c>
       <c r="G129" s="17"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
@@ -5181,7 +5175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>55</v>
       </c>
@@ -5198,7 +5192,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>55</v>
       </c>
@@ -5212,7 +5206,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>55</v>
       </c>
@@ -5229,7 +5223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>55</v>
       </c>
@@ -5243,7 +5237,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>55</v>
       </c>
@@ -5260,7 +5254,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>55</v>
       </c>
@@ -5274,7 +5268,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>55</v>
       </c>
@@ -5288,7 +5282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
@@ -5305,7 +5299,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
@@ -5319,7 +5313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
@@ -5336,7 +5330,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
@@ -5353,7 +5347,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>55</v>
       </c>
@@ -5370,7 +5364,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>55</v>
       </c>
@@ -5387,7 +5381,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
@@ -5404,7 +5398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
@@ -5418,7 +5412,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>55</v>
       </c>
@@ -5435,7 +5429,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="24" t="s">
         <v>404</v>
       </c>
@@ -5454,7 +5448,7 @@
       </c>
       <c r="G147" s="24"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>357</v>
       </c>
@@ -5468,7 +5462,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>357</v>
       </c>
@@ -5482,7 +5476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>357</v>
       </c>
@@ -5496,7 +5490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>357</v>
       </c>
@@ -5513,7 +5507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>357</v>
       </c>
@@ -5527,7 +5521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>357</v>
       </c>
@@ -5544,7 +5538,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>357</v>
       </c>
@@ -5561,7 +5555,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="17" t="s">
         <v>357</v>
       </c>
@@ -5578,7 +5572,7 @@
       </c>
       <c r="G155" s="17"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>63</v>
       </c>
@@ -5592,7 +5586,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>63</v>
       </c>
@@ -5609,7 +5603,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>63</v>
       </c>
@@ -5626,7 +5620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>63</v>
       </c>
@@ -5646,7 +5640,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>63</v>
       </c>
@@ -5660,7 +5654,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>63</v>
       </c>
@@ -5674,7 +5668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>63</v>
       </c>
@@ -5688,7 +5682,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>63</v>
       </c>
@@ -5705,7 +5699,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>63</v>
       </c>
@@ -5719,7 +5713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>63</v>
       </c>
@@ -5736,7 +5730,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>63</v>
       </c>
@@ -5750,7 +5744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>63</v>
       </c>
@@ -5767,7 +5761,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>63</v>
       </c>
@@ -5781,7 +5775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>63</v>
       </c>
@@ -5795,7 +5789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>63</v>
       </c>
@@ -5809,7 +5803,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>63</v>
       </c>
@@ -5823,7 +5817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>63</v>
       </c>
@@ -5837,7 +5831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>63</v>
       </c>
@@ -5851,7 +5845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>63</v>
       </c>
@@ -5865,7 +5859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="17" t="s">
         <v>63</v>
       </c>
@@ -5882,7 +5876,7 @@
       </c>
       <c r="G175" s="17"/>
     </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>420</v>
       </c>
@@ -5899,24 +5893,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>420</v>
       </c>
@@ -5930,7 +5924,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>420</v>
       </c>
@@ -5944,7 +5938,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>420</v>
       </c>
@@ -5958,7 +5952,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>420</v>
       </c>
@@ -5972,7 +5966,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>420</v>
       </c>
@@ -5992,7 +5986,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>420</v>
       </c>
@@ -6006,7 +6000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>420</v>
       </c>
@@ -6020,7 +6014,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>420</v>
       </c>
@@ -6037,7 +6031,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>420</v>
       </c>
@@ -6052,7 +6046,7 @@
       </c>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>420</v>
       </c>
@@ -6069,7 +6063,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>420</v>
       </c>
@@ -6086,7 +6080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>420</v>
       </c>
@@ -6100,7 +6094,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>420</v>
       </c>
@@ -6114,7 +6108,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>420</v>
       </c>
@@ -6128,7 +6122,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>420</v>
       </c>
@@ -6142,7 +6136,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>420</v>
       </c>
@@ -6156,7 +6150,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>420</v>
       </c>
@@ -6173,7 +6167,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>420</v>
       </c>
@@ -6187,7 +6181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="17" t="s">
         <v>420</v>
       </c>
@@ -6204,7 +6198,7 @@
       </c>
       <c r="G196" s="17"/>
     </row>
-    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -6218,7 +6212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -6235,7 +6229,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -6249,7 +6243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -6266,7 +6260,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -6280,7 +6274,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -6294,7 +6288,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -6308,7 +6302,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -6322,7 +6316,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="17" t="s">
         <v>93</v>
       </c>
@@ -6339,7 +6333,7 @@
       </c>
       <c r="G205" s="17"/>
     </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>70</v>
       </c>
@@ -6356,7 +6350,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>70</v>
       </c>
@@ -6373,24 +6367,24 @@
         <v>548</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="17" t="s">
         <v>70</v>
       </c>
@@ -6409,7 +6403,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>73</v>
       </c>
@@ -6423,7 +6417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>73</v>
       </c>
@@ -6437,7 +6431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>73</v>
       </c>
@@ -6451,7 +6445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>73</v>
       </c>
@@ -6465,7 +6459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>73</v>
       </c>
@@ -6479,7 +6473,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>73</v>
       </c>
@@ -6493,7 +6487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>73</v>
       </c>
@@ -6507,7 +6501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>73</v>
       </c>
@@ -6521,7 +6515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>73</v>
       </c>
@@ -6535,7 +6529,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>73</v>
       </c>
@@ -6549,7 +6543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>73</v>
       </c>
@@ -6566,7 +6560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>73</v>
       </c>
@@ -6580,7 +6574,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>73</v>
       </c>
@@ -6594,7 +6588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>73</v>
       </c>
@@ -6608,7 +6602,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>73</v>
       </c>
@@ -6622,7 +6616,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>73</v>
       </c>
@@ -6639,7 +6633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>73</v>
       </c>
@@ -6653,21 +6647,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>73</v>
       </c>
@@ -6681,7 +6675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>73</v>
       </c>
@@ -6695,7 +6689,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>73</v>
       </c>
@@ -6709,7 +6703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>73</v>
       </c>
@@ -6723,7 +6717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>73</v>
       </c>
@@ -6740,7 +6734,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>73</v>
       </c>
@@ -6754,7 +6748,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>73</v>
       </c>
@@ -6768,7 +6762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>73</v>
       </c>
@@ -6782,7 +6776,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>73</v>
       </c>
@@ -6796,7 +6790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>73</v>
       </c>
@@ -6813,7 +6807,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>73</v>
       </c>
@@ -6827,7 +6821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>73</v>
       </c>
@@ -6841,7 +6835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>73</v>
       </c>
@@ -6855,21 +6849,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>73</v>
       </c>
@@ -6883,7 +6877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>73</v>
       </c>
@@ -6897,7 +6891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>73</v>
       </c>
@@ -6914,7 +6908,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>73</v>
       </c>
@@ -6931,7 +6925,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>73</v>
       </c>
@@ -6948,7 +6942,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>73</v>
       </c>
@@ -6965,7 +6959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>73</v>
       </c>
@@ -6979,7 +6973,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>73</v>
       </c>
@@ -6993,21 +6987,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
@@ -7024,7 +7018,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>73</v>
       </c>
@@ -7038,7 +7032,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>73</v>
       </c>
@@ -7052,7 +7046,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>73</v>
       </c>
@@ -7066,7 +7060,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>73</v>
       </c>
@@ -7080,7 +7074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>73</v>
       </c>
@@ -7094,7 +7088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>73</v>
       </c>
@@ -7108,7 +7102,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>73</v>
       </c>
@@ -7122,7 +7116,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>73</v>
       </c>
@@ -7136,7 +7130,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>73</v>
       </c>
@@ -7150,7 +7144,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>73</v>
       </c>
@@ -7167,7 +7161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>73</v>
       </c>
@@ -7181,7 +7175,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>73</v>
       </c>
@@ -7195,7 +7189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>73</v>
       </c>
@@ -7212,7 +7206,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>73</v>
       </c>
@@ -7229,7 +7223,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="17" t="s">
         <v>73</v>
       </c>
@@ -7246,7 +7240,7 @@
       </c>
       <c r="G266" s="17"/>
     </row>
-    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>90</v>
       </c>
@@ -7263,7 +7257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>90</v>
       </c>
@@ -7280,7 +7274,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>90</v>
       </c>
@@ -7297,7 +7291,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>90</v>
       </c>
@@ -7311,7 +7305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>90</v>
       </c>
@@ -7328,7 +7322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="17" t="s">
         <v>90</v>
       </c>
@@ -7362,13 +7356,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7376,7 +7370,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -7384,7 +7378,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -7392,7 +7386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -7400,7 +7394,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -7408,7 +7402,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>413</v>
       </c>
@@ -7416,7 +7410,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>485</v>
       </c>
@@ -7424,7 +7418,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -7432,7 +7426,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -7440,7 +7434,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>275</v>
       </c>
@@ -7448,7 +7442,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7456,7 +7450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>404</v>
       </c>
@@ -7464,7 +7458,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>357</v>
       </c>
@@ -7472,7 +7466,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -7480,7 +7474,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -7488,7 +7482,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -7496,7 +7490,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -7504,7 +7498,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -7512,7 +7506,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>90</v>
       </c>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB7B22F-00E2-4A6E-AEC9-3FB51C71D3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8897B2-1E68-48A6-9A5A-DDB5029AA7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18260" yWindow="1660" windowWidth="17280" windowHeight="9670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="764">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2306,6 +2306,24 @@
   </si>
   <si>
     <t>Max and Min Hourly Electriicty Imports and Exports</t>
+  </si>
+  <si>
+    <t>BPMCRS</t>
+  </si>
+  <si>
+    <t>BAU Policy Mandated Capacity Retrofit Schedule</t>
+  </si>
+  <si>
+    <t>You know particular capacities of particular types of plants will be retrofit with CCUS in particular years (for example, they are already under construction), or you are modeling a region where power plant retrofit decisions are based on government mandates rather than being market-driven</t>
+  </si>
+  <si>
+    <t>PMCRS</t>
+  </si>
+  <si>
+    <t>Policy Mandated Capacity Retrofit Schedule</t>
+  </si>
+  <si>
+    <t>You are modeling a region where power plant CCUS retrofit decisions are based on government mandates rather than being market-driven, and you are setting this policy lever to alter the BAU mandates</t>
   </si>
 </sst>
 </file>
@@ -3127,11 +3145,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4318,63 +4336,66 @@
         <v>322</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>694</v>
+        <v>758</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>203</v>
+        <v>695</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>693</v>
+        <v>678</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>160</v>
+        <v>692</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>693</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>99</v>
@@ -4385,61 +4406,58 @@
         <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>661</v>
+        <v>160</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>661</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>730</v>
+        <v>662</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>731</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>732</v>
+        <v>52</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>513</v>
+        <v>731</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>515</v>
+        <v>732</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -4447,44 +4465,47 @@
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>733</v>
+        <v>513</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>651</v>
+        <v>734</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>309</v>
+        <v>650</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>100</v>
+        <v>651</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4492,64 +4513,61 @@
         <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>747</v>
+        <v>309</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>748</v>
+        <v>310</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>747</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>663</v>
+        <v>288</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>664</v>
+        <v>289</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>101</v>
+        <v>290</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4557,33 +4575,33 @@
         <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>169</v>
+        <v>663</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>170</v>
+        <v>664</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>674</v>
+        <v>169</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>675</v>
+        <v>170</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>100</v>
+        <v>447</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4591,13 +4609,16 @@
         <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>101</v>
+        <v>675</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4605,10 +4626,10 @@
         <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>737</v>
+        <v>608</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>738</v>
+        <v>609</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>101</v>
@@ -4619,89 +4640,89 @@
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>489</v>
+        <v>737</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>177</v>
+        <v>489</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>718</v>
+        <v>177</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>593</v>
+        <v>739</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>594</v>
+        <v>740</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>99</v>
+        <v>594</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -4709,10 +4730,10 @@
         <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>756</v>
+        <v>606</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>757</v>
+        <v>607</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>99</v>
@@ -4723,13 +4744,13 @@
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>597</v>
+        <v>756</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>100</v>
+        <v>757</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -4737,10 +4758,10 @@
         <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>665</v>
+        <v>597</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>666</v>
+        <v>598</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>100</v>
@@ -4751,13 +4772,13 @@
         <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>48</v>
+        <v>665</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>99</v>
+        <v>666</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4765,61 +4786,61 @@
         <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>672</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>186</v>
+        <v>761</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>100</v>
+        <v>762</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4827,30 +4848,30 @@
         <v>43</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>580</v>
+        <v>672</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>338</v>
+        <v>187</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4858,86 +4879,89 @@
         <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>684</v>
+        <v>580</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>601</v>
+        <v>203</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>602</v>
+        <v>204</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>99</v>
+        <v>205</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B112" s="2" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>452</v>
+        <v>601</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>453</v>
+        <v>602</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>100</v>
+        <v>605</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B114" s="2" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F114" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>654</v>
+        <v>452</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>655</v>
+        <v>453</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>100</v>
@@ -4948,41 +4972,41 @@
         <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>575</v>
+        <v>654</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>576</v>
+        <v>655</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>99</v>
+        <v>657</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -4990,102 +5014,96 @@
         <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>742</v>
+        <v>652</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>744</v>
+        <v>653</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="F121" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="17" t="s">
+      <c r="F123" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B124" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C124" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="D124" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E122" s="17"/>
-      <c r="F122" s="21" t="s">
+      <c r="E124" s="17"/>
+      <c r="F124" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G122" s="17" t="s">
+      <c r="G124" s="17" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -5093,10 +5111,13 @@
         <v>275</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>100</v>
@@ -5107,13 +5128,16 @@
         <v>275</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>418</v>
+        <v>273</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>101</v>
+        <v>274</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -5121,103 +5145,100 @@
         <v>275</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>184</v>
+        <v>418</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F128" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G129" s="17"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>471</v>
+        <v>184</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>380</v>
+        <v>471</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>381</v>
+        <v>472</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>473</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>59</v>
+        <v>474</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>268</v>
+        <v>475</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>99</v>
@@ -5228,30 +5249,30 @@
         <v>55</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>526</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -5259,13 +5280,13 @@
         <v>55</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>544</v>
+        <v>313</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>99</v>
+        <v>314</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -5273,30 +5294,30 @@
         <v>55</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>610</v>
+        <v>526</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>544</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>337</v>
+        <v>545</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5304,13 +5325,13 @@
         <v>55</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>311</v>
+        <v>610</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>101</v>
+        <v>611</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5318,33 +5339,30 @@
         <v>55</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F140" s="16" t="s">
-        <v>303</v>
+        <v>60</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F141" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>397</v>
+        <v>312</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5352,142 +5370,148 @@
         <v>55</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>388</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>389</v>
+        <v>61</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="F148" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G148" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="24" t="s">
+    <row r="149" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="B147" s="24" t="s">
+      <c r="B149" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C149" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D149" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E147" s="24"/>
-      <c r="F147" s="19" t="s">
+      <c r="E149" s="24"/>
+      <c r="F149" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G147" s="24"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="G149" s="24"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>100</v>
+        <v>366</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5495,13 +5519,10 @@
         <v>357</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>100</v>
@@ -5512,10 +5533,10 @@
         <v>357</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>100</v>
@@ -5526,98 +5547,95 @@
         <v>357</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="F156" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G156" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="17" t="s">
+    <row r="157" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B157" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C157" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="20" t="s">
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G155" s="17"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G157" s="17"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>667</v>
+        <v>206</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>100</v>
+        <v>207</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5625,19 +5643,16 @@
         <v>63</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>197</v>
+        <v>519</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F159" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>339</v>
+        <v>520</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5645,13 +5660,16 @@
         <v>63</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>326</v>
+        <v>667</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>101</v>
+        <v>668</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5659,44 +5677,47 @@
         <v>63</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>497</v>
+        <v>326</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>498</v>
+        <v>327</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F163" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>345</v>
+        <v>67</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5704,30 +5725,30 @@
         <v>63</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>516</v>
+        <v>65</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>518</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5735,30 +5756,30 @@
         <v>63</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>199</v>
+        <v>563</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>66</v>
+        <v>516</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>400</v>
+        <v>517</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5766,10 +5787,10 @@
         <v>63</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>100</v>
@@ -5780,27 +5801,30 @@
         <v>63</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>101</v>
+        <v>191</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5808,13 +5832,13 @@
         <v>63</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>100</v>
+        <v>280</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5822,24 +5846,24 @@
         <v>63</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>568</v>
+        <v>278</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>569</v>
+        <v>281</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>477</v>
+        <v>279</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>476</v>
+        <v>282</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>100</v>
@@ -5850,75 +5874,72 @@
         <v>63</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F174" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G175" s="17"/>
     </row>
     <row r="176" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G177" s="17"/>
+    </row>
+    <row r="178" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>428</v>
+        <v>560</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>429</v>
+        <v>561</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>99</v>
@@ -5929,10 +5950,13 @@
         <v>420</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>430</v>
+        <v>716</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>431</v>
+        <v>717</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>99</v>
@@ -5943,10 +5967,10 @@
         <v>420</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>99</v>
@@ -5957,30 +5981,24 @@
         <v>420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>616</v>
+        <v>401</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>99</v>
@@ -5991,107 +6009,110 @@
         <v>420</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>422</v>
+        <v>616</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>424</v>
+        <v>618</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>531</v>
+        <v>434</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F185" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F186" s="3"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>142</v>
+        <v>532</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F188" s="3"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>101</v>
+        <v>530</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -6099,13 +6120,16 @@
         <v>420</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>101</v>
+        <v>504</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -6113,10 +6137,10 @@
         <v>420</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>101</v>
@@ -6127,10 +6151,10 @@
         <v>420</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>101</v>
@@ -6141,151 +6165,151 @@
         <v>420</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>542</v>
+        <v>423</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F194" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F196" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F195" s="19" t="s">
+      <c r="F197" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="17" t="s">
+    <row r="198" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B198" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C198" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
-      <c r="F196" s="19" t="s">
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G196" s="17"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F198" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G198" s="17"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F200" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>101</v>
+        <v>214</v>
+      </c>
+      <c r="F202" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -6293,142 +6317,142 @@
         <v>93</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F204" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B205" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17"/>
-      <c r="F205" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G205" s="17"/>
+      <c r="B205" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G207" s="17"/>
+    </row>
+    <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>751</v>
+        <v>71</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>752</v>
+        <v>72</v>
       </c>
       <c r="F208" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F209" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G208" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B209" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
-      <c r="F209" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G209" s="17" t="s">
-        <v>336</v>
+      <c r="G209" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>635</v>
+        <v>751</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>101</v>
+        <v>752</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G211" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6436,10 +6460,10 @@
         <v>73</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>74</v>
+        <v>635</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>100</v>
@@ -6450,27 +6474,27 @@
         <v>73</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>75</v>
+        <v>551</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>83</v>
+        <v>552</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>555</v>
+        <v>74</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6478,27 +6502,27 @@
         <v>73</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>680</v>
+        <v>555</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>100</v>
+        <v>556</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6506,13 +6530,13 @@
         <v>73</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>101</v>
+        <v>412</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6520,13 +6544,13 @@
         <v>73</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>283</v>
+        <v>680</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>99</v>
+        <v>681</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6534,30 +6558,27 @@
         <v>73</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>256</v>
+        <v>553</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F220" s="5" t="s">
-        <v>101</v>
+        <v>284</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6565,24 +6586,27 @@
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>621</v>
+        <v>256</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F221" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>623</v>
+        <v>236</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>624</v>
+        <v>237</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>101</v>
@@ -6593,10 +6617,10 @@
         <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>232</v>
+        <v>621</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>233</v>
+        <v>622</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>101</v>
@@ -6607,10 +6631,10 @@
         <v>73</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>228</v>
+        <v>623</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>229</v>
+        <v>624</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>101</v>
@@ -6621,13 +6645,10 @@
         <v>73</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>637</v>
+        <v>232</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>639</v>
+        <v>233</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>101</v>
@@ -6638,10 +6659,10 @@
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>625</v>
+        <v>228</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>626</v>
+        <v>229</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>101</v>
@@ -6652,13 +6673,16 @@
         <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>713</v>
+        <v>637</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>99</v>
+        <v>638</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -6666,13 +6690,13 @@
         <v>73</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>99</v>
+        <v>626</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -6680,10 +6704,10 @@
         <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>612</v>
+        <v>713</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>613</v>
+        <v>714</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>99</v>
@@ -6694,13 +6718,13 @@
         <v>73</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>100</v>
+        <v>641</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6708,30 +6732,27 @@
         <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>241</v>
+        <v>612</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>285</v>
+        <v>590</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>334</v>
+        <v>591</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6739,27 +6760,30 @@
         <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>101</v>
+        <v>286</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6767,10 +6791,10 @@
         <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>101</v>
@@ -6781,13 +6805,13 @@
         <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6795,13 +6819,10 @@
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>627</v>
+        <v>78</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>629</v>
+        <v>86</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>101</v>
@@ -6812,10 +6833,10 @@
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>449</v>
+        <v>87</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>100</v>
@@ -6826,27 +6847,30 @@
         <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>478</v>
+        <v>627</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>642</v>
+        <v>448</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>101</v>
+        <v>449</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -6854,27 +6878,27 @@
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>745</v>
+        <v>478</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>80</v>
+        <v>642</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>99</v>
+        <v>643</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -6882,47 +6906,41 @@
         <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>549</v>
+        <v>745</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F243" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F244" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>295</v>
+        <v>549</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F245" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>335</v>
+        <v>550</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -6930,10 +6948,10 @@
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="F246" s="16" t="s">
         <v>303</v>
@@ -6942,80 +6960,83 @@
         <v>335</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="F247" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>696</v>
+        <v>239</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F248" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="F248" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>89</v>
+        <v>231</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>749</v>
+        <v>696</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>377</v>
+        <v>89</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7023,27 +7044,30 @@
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>644</v>
+        <v>749</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>101</v>
+        <v>444</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7051,13 +7075,13 @@
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>245</v>
+        <v>644</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F254" s="14" t="s">
-        <v>258</v>
+        <v>645</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7065,10 +7089,10 @@
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>298</v>
+        <v>507</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>297</v>
+        <v>508</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>101</v>
@@ -7079,13 +7103,13 @@
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>646</v>
+        <v>245</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>100</v>
+        <v>246</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7093,10 +7117,10 @@
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>101</v>
@@ -7107,13 +7131,13 @@
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>101</v>
+        <v>647</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7121,13 +7145,13 @@
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F259" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7135,13 +7159,13 @@
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>524</v>
+        <v>630</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F260" s="14" t="s">
-        <v>258</v>
+        <v>631</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7149,16 +7173,13 @@
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>522</v>
+        <v>226</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F261" s="5" t="s">
-        <v>101</v>
+        <v>227</v>
+      </c>
+      <c r="F261" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7166,126 +7187,123 @@
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>224</v>
+        <v>524</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+      <c r="F262" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>648</v>
+        <v>522</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F263" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>585</v>
+        <v>224</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F265" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F265" s="16" t="s">
+      <c r="F267" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="G265" s="2" t="s">
+      <c r="G267" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="17" t="s">
+    <row r="268" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B266" s="17" t="s">
+      <c r="B268" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C268" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D266" s="17"/>
-      <c r="E266" s="17"/>
-      <c r="F266" s="20" t="s">
+      <c r="D268" s="17"/>
+      <c r="E268" s="17"/>
+      <c r="F268" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G266" s="17"/>
-    </row>
-    <row r="267" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A267" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F267" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F268" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="G268" s="17"/>
     </row>
     <row r="269" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>101</v>
@@ -7296,50 +7314,84 @@
         <v>90</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>351</v>
+        <v>222</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D273" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F271" s="4" t="s">
+      <c r="F273" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="17" t="s">
+    <row r="274" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B274" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C274" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D272" s="17" t="s">
+      <c r="D274" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E272" s="17"/>
-      <c r="F272" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G272" s="17"/>
+      <c r="E274" s="17"/>
+      <c r="F274" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G274" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8897B2-1E68-48A6-9A5A-DDB5029AA7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD8C04-7187-4F7D-AEBA-76C1921E8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="768">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2239,9 +2239,6 @@
     <t>Capacity Supply Curve</t>
   </si>
   <si>
-    <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year</t>
-  </si>
-  <si>
     <t>Electricity Dispatch Weibull Parameter A, Electricity Dispatch Weibull Parameter B</t>
   </si>
   <si>
@@ -2324,6 +2321,21 @@
   </si>
   <si>
     <t>You are modeling a region where power plant CCUS retrofit decisions are based on government mandates rather than being market-driven, and you are setting this policy lever to alter the BAU mandates</t>
+  </si>
+  <si>
+    <t>goeeng</t>
+  </si>
+  <si>
+    <t>ERWD</t>
+  </si>
+  <si>
+    <t>Enhanced Rock Weathering Data</t>
+  </si>
+  <si>
+    <t>Enhanced Rock Weathering Potential, Enhanced Rock Weathering Energy Intensity, Enhanced Rock Weathering Amortized CapEx and OM</t>
+  </si>
+  <si>
+    <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year, Capacity Supply Curve Share of Cost Effective Hybrid Capacity Built in a Single Year</t>
   </si>
 </sst>
 </file>
@@ -2405,7 +2417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2422,22 +2434,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2494,10 +2495,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2811,86 +2815,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>99</v>
       </c>
@@ -2898,32 +2902,32 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>250</v>
       </c>
@@ -2931,17 +2935,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>101</v>
       </c>
@@ -2949,42 +2953,42 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>100</v>
       </c>
@@ -2992,84 +2996,84 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>258</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>142</v>
       </c>
@@ -3077,62 +3081,62 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -3145,26 +3149,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="67" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="54" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3202,11 +3206,11 @@
       <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -3285,7 +3289,7 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +3362,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3587,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -3614,7 +3618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -3642,7 +3646,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
@@ -3692,7 +3696,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3723,7 +3727,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +3758,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -3785,7 +3789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>36</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>172</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>172</v>
       </c>
@@ -3846,7 +3850,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>485</v>
       </c>
@@ -3865,7 +3869,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>413</v>
       </c>
@@ -3882,7 +3886,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>413</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>413</v>
       </c>
@@ -3916,7 +3920,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>413</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>413</v>
       </c>
@@ -3950,7 +3954,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>413</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>413</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>413</v>
       </c>
@@ -4001,7 +4005,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>413</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>413</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>413</v>
       </c>
@@ -4052,7 +4056,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>413</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>413</v>
       </c>
@@ -4080,7 +4084,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>413</v>
       </c>
@@ -4100,15 +4104,15 @@
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>413</v>
       </c>
       <c r="B60" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>754</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>755</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -4117,7 +4121,7 @@
       </c>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>38</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>38</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>38</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>43</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
@@ -4254,7 +4258,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>43</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
@@ -4288,7 +4292,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>43</v>
       </c>
@@ -4305,7 +4309,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
@@ -4336,24 +4340,24 @@
         <v>322</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="F75" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
@@ -4367,7 +4371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>43</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
@@ -4477,7 +4481,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
@@ -4488,13 +4492,13 @@
         <v>734</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
@@ -4508,7 +4512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
@@ -4522,21 +4526,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>43</v>
       </c>
@@ -4570,7 +4574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
@@ -4581,13 +4585,13 @@
         <v>664</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>43</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -4621,7 +4625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>43</v>
       </c>
@@ -4635,21 +4639,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>738</v>
-      </c>
       <c r="F94" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>43</v>
       </c>
@@ -4683,7 +4687,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>43</v>
       </c>
@@ -4697,21 +4701,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>43</v>
       </c>
@@ -4725,7 +4729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>43</v>
       </c>
@@ -4739,21 +4743,21 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>43</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>43</v>
       </c>
@@ -4781,7 +4785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>43</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
@@ -4809,7 +4813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>43</v>
       </c>
@@ -4826,24 +4830,24 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>102</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>43</v>
       </c>
@@ -4854,13 +4858,13 @@
         <v>673</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
@@ -4874,7 +4878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>43</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>43</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>43</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>43</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>670</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>43</v>
       </c>
@@ -4967,7 +4971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>43</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>43</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>43</v>
       </c>
@@ -5023,7 +5027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>43</v>
       </c>
@@ -5037,7 +5041,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>43</v>
       </c>
@@ -5054,24 +5058,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>43</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
         <v>43</v>
       </c>
@@ -5106,7 +5110,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>275</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>275</v>
       </c>
@@ -5140,7 +5144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>275</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>275</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>275</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>275</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
         <v>275</v>
       </c>
@@ -5213,7 +5217,7 @@
       </c>
       <c r="G131" s="17"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>55</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>55</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>55</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>55</v>
       </c>
@@ -5275,7 +5279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>55</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>55</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
@@ -5351,7 +5355,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>55</v>
       </c>
@@ -5382,7 +5386,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>55</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
@@ -5416,7 +5420,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>55</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>55</v>
       </c>
@@ -5464,1511 +5468,1509 @@
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
+    <row r="148" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F148" s="6" t="s">
+      <c r="F148" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="G148" s="17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="24" t="s">
+    <row r="149" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="B149" s="24" t="s">
+      <c r="B149" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C149" s="24" t="s">
+      <c r="C149" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="19" t="s">
+      <c r="F149" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="G149" s="24"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G156" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="17" t="s">
+    <row r="158" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B158" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C158" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="20" t="s">
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G157" s="17"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F158" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G158" s="17"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>519</v>
+        <v>206</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>667</v>
+        <v>519</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>668</v>
+        <v>520</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>197</v>
+        <v>667</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F161" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>326</v>
+        <v>197</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>497</v>
+        <v>64</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>497</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F165" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>563</v>
+        <v>65</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>516</v>
+        <v>563</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>199</v>
+        <v>516</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F169" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>568</v>
+        <v>279</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>477</v>
+        <v>568</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="17" t="s">
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="B177" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B178" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C178" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="20" t="s">
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G177" s="17"/>
-    </row>
-    <row r="178" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G178" s="17"/>
+    </row>
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>716</v>
+        <v>560</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>717</v>
+        <v>561</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>715</v>
+        <v>562</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>428</v>
+        <v>716</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>429</v>
+        <v>717</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>616</v>
+        <v>432</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>531</v>
+        <v>422</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F187" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F188" s="3"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>542</v>
+        <v>469</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F196" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>543</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F197" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F197" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B198" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="D198" s="17"/>
-      <c r="E198" s="17"/>
       <c r="F198" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G198" s="17"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G199" s="17"/>
+    </row>
+    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F200" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F202" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="F203" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F206" s="12" t="s">
+      <c r="F207" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="17" t="s">
+    <row r="208" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B207" s="17" t="s">
+      <c r="B208" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C208" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D207" s="17"/>
-      <c r="E207" s="17"/>
-      <c r="F207" s="20" t="s">
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G207" s="17"/>
-    </row>
-    <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G208" s="17"/>
+    </row>
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>751</v>
+        <v>192</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>752</v>
+        <v>194</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B211" s="17" t="s">
+      <c r="B211" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B212" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C212" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="22" t="s">
+      <c r="D212" s="17"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G211" s="17" t="s">
+      <c r="G212" s="17" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>74</v>
+        <v>551</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F215" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>555</v>
+        <v>75</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>556</v>
+        <v>83</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>411</v>
+        <v>555</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>680</v>
+        <v>411</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>681</v>
+        <v>412</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>553</v>
+        <v>680</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F219" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>283</v>
+        <v>553</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>621</v>
+        <v>236</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>622</v>
+        <v>237</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>232</v>
+        <v>623</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>233</v>
+        <v>624</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>637</v>
+        <v>228</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>639</v>
+        <v>229</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>713</v>
+        <v>625</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>241</v>
+        <v>590</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>242</v>
+        <v>591</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F234" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F235" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>627</v>
+        <v>79</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F239" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>448</v>
+        <v>627</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>642</v>
+        <v>478</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F242" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>745</v>
+        <v>642</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>80</v>
+        <v>744</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>88</v>
+        <v>745</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F245" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>293</v>
+        <v>549</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F246" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F247" s="16" t="s">
         <v>303</v>
@@ -6977,15 +6979,15 @@
         <v>335</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="F248" s="16" t="s">
         <v>303</v>
@@ -6994,404 +6996,421 @@
         <v>335</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="F249" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>696</v>
+        <v>230</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F250" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>81</v>
+        <v>696</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>749</v>
+        <v>81</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>750</v>
+        <v>89</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>443</v>
+        <v>748</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>644</v>
+        <v>443</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>507</v>
+        <v>644</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>508</v>
+        <v>645</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>245</v>
+        <v>507</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F256" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>646</v>
+        <v>298</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F258" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>234</v>
+        <v>646</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>630</v>
+        <v>234</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>631</v>
+        <v>235</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>226</v>
+        <v>630</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F261" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>524</v>
+        <v>226</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F262" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F263" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>224</v>
+        <v>522</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>225</v>
+        <v>523</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>648</v>
+        <v>224</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F265" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="F266" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F267" s="16" t="s">
+      <c r="F268" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="G267" s="2" t="s">
+      <c r="G268" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="17" t="s">
+    <row r="269" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B268" s="17" t="s">
+      <c r="B269" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C269" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D268" s="17"/>
-      <c r="E268" s="17"/>
-      <c r="F268" s="20" t="s">
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G268" s="17"/>
-    </row>
-    <row r="269" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G269" s="17"/>
+    </row>
+    <row r="270" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="F270" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>249</v>
+        <v>403</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>565</v>
+        <v>351</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>567</v>
+        <v>352</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="17" t="s">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B274" s="17" t="s">
+      <c r="B274" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B275" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C275" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D274" s="17" t="s">
+      <c r="D275" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E274" s="17"/>
-      <c r="F274" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G274" s="17"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G275" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7408,13 +7427,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7422,7 +7441,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -7430,7 +7449,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -7438,7 +7457,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -7446,7 +7465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -7454,7 +7473,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>413</v>
       </c>
@@ -7462,7 +7481,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>485</v>
       </c>
@@ -7470,7 +7489,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -7478,7 +7497,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -7486,7 +7505,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>275</v>
       </c>
@@ -7494,7 +7513,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7502,7 +7521,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>404</v>
       </c>
@@ -7510,7 +7529,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>357</v>
       </c>
@@ -7518,7 +7537,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -7526,7 +7545,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -7534,7 +7553,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -7542,7 +7561,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -7550,7 +7569,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -7558,7 +7577,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD8C04-7187-4F7D-AEBA-76C1921E8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE41482-7AAD-4FF8-8F3A-C46659165C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="769">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2336,6 +2336,9 @@
   </si>
   <si>
     <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year, Capacity Supply Curve Share of Cost Effective Hybrid Capacity Built in a Single Year</t>
+  </si>
+  <si>
+    <t>BAU RPS Alternative Compliance Payment, RPS Alternative Compliance Payment</t>
   </si>
 </sst>
 </file>
@@ -2438,7 +2441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2496,12 +2499,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2815,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -3151,9 +3148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,52 +4081,50 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="17" t="s">
         <v>726</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="E59" s="17"/>
+      <c r="F59" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="17" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>753</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60" s="17"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>99</v>
@@ -4140,13 +4135,13 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>99</v>
+        <v>42</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4154,46 +4149,49 @@
         <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>546</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>42</v>
+        <v>547</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="17" t="s">
+      <c r="B64" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="21" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G64" s="17" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4201,61 +4199,61 @@
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>658</v>
+        <v>181</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>659</v>
+        <v>727</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>328</v>
+        <v>604</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>604</v>
+        <v>687</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>101</v>
+        <v>688</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4263,33 +4261,33 @@
         <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>687</v>
+        <v>175</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
+        <v>595</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>320</v>
+        <v>596</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4297,30 +4295,30 @@
         <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>595</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>99</v>
+        <v>51</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4328,78 +4326,75 @@
         <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>757</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>758</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>757</v>
+        <v>694</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>695</v>
+        <v>678</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>203</v>
+        <v>693</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>692</v>
+        <v>160</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>693</v>
+        <v>161</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>99</v>
@@ -4410,106 +4405,106 @@
         <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>661</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>661</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>662</v>
+        <v>52</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>46</v>
+        <v>731</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>731</v>
+        <v>513</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>513</v>
+        <v>733</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>733</v>
+        <v>650</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>767</v>
+        <v>651</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>650</v>
+        <v>309</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>101</v>
+        <v>310</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4517,27 +4512,30 @@
         <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>309</v>
+        <v>746</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>310</v>
+        <v>747</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>746</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>100</v>
+        <v>171</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4545,16 +4543,16 @@
         <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>99</v>
+        <v>290</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4562,16 +4560,16 @@
         <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>288</v>
+        <v>663</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>289</v>
+        <v>664</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>100</v>
+        <v>735</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4579,154 +4577,151 @@
         <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>663</v>
+        <v>169</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>664</v>
+        <v>170</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>169</v>
+        <v>674</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>170</v>
+        <v>675</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>674</v>
+        <v>608</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>608</v>
+        <v>736</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>609</v>
+        <v>737</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>736</v>
+        <v>489</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>489</v>
+        <v>177</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>718</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>738</v>
+        <v>593</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>739</v>
+        <v>594</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>100</v>
+        <v>607</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4734,10 +4729,10 @@
         <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>606</v>
+        <v>755</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>607</v>
+        <v>756</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>99</v>
@@ -4748,13 +4743,13 @@
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>755</v>
+        <v>597</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>99</v>
+        <v>598</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4762,10 +4757,10 @@
         <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>100</v>
@@ -4776,13 +4771,13 @@
         <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>665</v>
+        <v>48</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4790,27 +4785,30 @@
         <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4818,33 +4816,33 @@
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>760</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>54</v>
+        <v>761</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>102</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>762</v>
+        <v>754</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5485,20 +5483,20 @@
         <v>353</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="25" t="s">
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B149" s="25" t="s">
+      <c r="B149" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="25" t="s">
+      <c r="D149" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F149" s="26" t="s">
+      <c r="F149" s="3" t="s">
         <v>99</v>
       </c>
     </row>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129B8F3-CD5F-469F-8564-550C965CF605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE41482-7AAD-4FF8-8F3A-C46659165C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="769">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2104,12 +2104,6 @@
     <t>Fraction of EVs Used for Grid Balancing on Average Day, Fraction of EV Battery Capacity Used for Grid Balancing when EV is Used for Grid Balancing</t>
   </si>
   <si>
-    <t>DATAiRC</t>
-  </si>
-  <si>
-    <t>Demand-Altering Technology Assistance in RPS Compliance</t>
-  </si>
-  <si>
     <t>CCSTaSC</t>
   </si>
   <si>
@@ -2134,15 +2128,6 @@
     <t>Non-Battery Portion of New Vehicle Prices</t>
   </si>
   <si>
-    <t>SoEIaEbH</t>
-  </si>
-  <si>
-    <t>Share of Electricity Imports and Exports by Hour</t>
-  </si>
-  <si>
-    <t>Share of Electricity Imports by Hour, Share of Electricity Exports by Hour</t>
-  </si>
-  <si>
     <t>CO2 Capture Potential by Electricity Source, CO2 Capture Potential by Industry,CO2 Capture Potential by Hydrogen Sector</t>
   </si>
   <si>
@@ -2254,9 +2239,6 @@
     <t>Capacity Supply Curve</t>
   </si>
   <si>
-    <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year</t>
-  </si>
-  <si>
     <t>Electricity Dispatch Weibull Parameter A, Electricity Dispatch Weibull Parameter B</t>
   </si>
   <si>
@@ -2315,6 +2297,48 @@
   </si>
   <si>
     <t>RPS Alternative Compliance Payment</t>
+  </si>
+  <si>
+    <t>MaMHEIaE</t>
+  </si>
+  <si>
+    <t>Max and Min Hourly Electriicty Imports and Exports</t>
+  </si>
+  <si>
+    <t>BPMCRS</t>
+  </si>
+  <si>
+    <t>BAU Policy Mandated Capacity Retrofit Schedule</t>
+  </si>
+  <si>
+    <t>You know particular capacities of particular types of plants will be retrofit with CCUS in particular years (for example, they are already under construction), or you are modeling a region where power plant retrofit decisions are based on government mandates rather than being market-driven</t>
+  </si>
+  <si>
+    <t>PMCRS</t>
+  </si>
+  <si>
+    <t>Policy Mandated Capacity Retrofit Schedule</t>
+  </si>
+  <si>
+    <t>You are modeling a region where power plant CCUS retrofit decisions are based on government mandates rather than being market-driven, and you are setting this policy lever to alter the BAU mandates</t>
+  </si>
+  <si>
+    <t>goeeng</t>
+  </si>
+  <si>
+    <t>ERWD</t>
+  </si>
+  <si>
+    <t>Enhanced Rock Weathering Data</t>
+  </si>
+  <si>
+    <t>Enhanced Rock Weathering Potential, Enhanced Rock Weathering Energy Intensity, Enhanced Rock Weathering Amortized CapEx and OM</t>
+  </si>
+  <si>
+    <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year, Capacity Supply Curve Share of Cost Effective Hybrid Capacity Built in a Single Year</t>
+  </si>
+  <si>
+    <t>BAU RPS Alternative Compliance Payment, RPS Alternative Compliance Payment</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2413,22 +2437,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2483,9 +2496,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2802,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -3136,11 +3146,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3203,7 @@
       <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>541</v>
       </c>
     </row>
@@ -3309,10 +3319,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>99</v>
@@ -3702,13 +3712,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>101</v>
@@ -3719,10 +3729,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>
@@ -3739,7 +3749,7 @@
         <v>417</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>101</v>
@@ -3756,7 +3766,7 @@
         <v>410</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>101</v>
@@ -3767,10 +3777,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>101</v>
@@ -3781,10 +3791,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>100</v>
@@ -3798,7 +3808,7 @@
         <v>575</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>100</v>
@@ -3853,7 +3863,7 @@
         <v>142</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3946,16 +3956,16 @@
         <v>413</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4071,52 +4081,50 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="D59" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="17" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60" s="17"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>99</v>
@@ -4127,13 +4135,13 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>99</v>
+        <v>42</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4141,46 +4149,49 @@
         <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>546</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>42</v>
+        <v>547</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="17" t="s">
+      <c r="B64" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="21" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G64" s="17" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4188,61 +4199,61 @@
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>658</v>
+        <v>181</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>659</v>
+        <v>727</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>328</v>
+        <v>604</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>604</v>
+        <v>687</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>101</v>
+        <v>688</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4250,33 +4261,33 @@
         <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>687</v>
+        <v>175</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
+        <v>595</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>320</v>
+        <v>596</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4284,30 +4295,30 @@
         <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>595</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>99</v>
+        <v>51</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4315,16 +4326,16 @@
         <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>757</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>758</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>322</v>
+        <v>759</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4332,10 +4343,10 @@
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>99</v>
@@ -4366,10 +4377,10 @@
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>99</v>
@@ -4414,7 +4425,7 @@
         <v>52</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>101</v>
@@ -4425,10 +4436,10 @@
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>101</v>
@@ -4451,18 +4462,18 @@
         <v>515</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>101</v>
@@ -4473,27 +4484,27 @@
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>650</v>
+        <v>309</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>101</v>
+        <v>310</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4501,27 +4512,30 @@
         <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>309</v>
+        <v>746</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>310</v>
+        <v>747</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>752</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>100</v>
+        <v>171</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4529,16 +4543,16 @@
         <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>99</v>
+        <v>290</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4546,16 +4560,16 @@
         <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>288</v>
+        <v>663</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>289</v>
+        <v>664</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>100</v>
+        <v>735</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4563,154 +4577,151 @@
         <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>663</v>
+        <v>169</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>664</v>
+        <v>170</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>169</v>
+        <v>674</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>170</v>
+        <v>675</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>674</v>
+        <v>608</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>608</v>
+        <v>736</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>609</v>
+        <v>737</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>742</v>
+        <v>489</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>489</v>
+        <v>177</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>718</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>744</v>
+        <v>593</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>745</v>
+        <v>594</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>100</v>
+        <v>607</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4718,10 +4729,10 @@
         <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>606</v>
+        <v>755</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>607</v>
+        <v>756</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>99</v>
@@ -4800,111 +4811,117 @@
         <v>323</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>672</v>
+        <v>760</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>186</v>
+        <v>753</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>580</v>
+        <v>672</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>684</v>
+        <v>580</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>601</v>
+        <v>203</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>602</v>
+        <v>204</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B112" s="2" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>258</v>
+        <v>685</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4912,47 +4929,44 @@
         <v>43</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>700</v>
+        <v>601</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>702</v>
+        <v>605</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>452</v>
+        <v>670</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>682</v>
+        <v>452</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>258</v>
+        <v>453</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4960,13 +4974,13 @@
         <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>100</v>
+        <v>683</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4974,10 +4988,10 @@
         <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>100</v>
@@ -4988,27 +5002,27 @@
         <v>43</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>99</v>
+        <v>576</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5016,30 +5030,27 @@
         <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>747</v>
+        <v>599</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>749</v>
+        <v>600</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>99</v>
@@ -5050,51 +5061,51 @@
         <v>43</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C124" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D124" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E123" s="17"/>
-      <c r="F123" s="21" t="s">
+      <c r="E124" s="17"/>
+      <c r="F124" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G123" s="17" t="s">
+      <c r="G124" s="17" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5102,117 +5113,117 @@
         <v>275</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>418</v>
+        <v>271</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="17" t="s">
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B131" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C131" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="20" t="s">
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G130" s="17"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>99</v>
@@ -5223,44 +5234,47 @@
         <v>55</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>380</v>
+        <v>473</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>381</v>
+        <v>474</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>56</v>
+        <v>380</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5268,13 +5282,10 @@
         <v>55</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>526</v>
+        <v>313</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>528</v>
+        <v>314</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>101</v>
@@ -5285,13 +5296,16 @@
         <v>55</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>99</v>
+        <v>527</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5299,61 +5313,58 @@
         <v>55</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>610</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>390</v>
+        <v>311</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F141" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>396</v>
+        <v>312</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5361,16 +5372,16 @@
         <v>55</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5378,128 +5389,132 @@
         <v>55</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F143" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>376</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B148" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C148" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="F148" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G148" s="17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="24" t="s">
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B149" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C149" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D149" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E148" s="24"/>
-      <c r="F148" s="19" t="s">
+      <c r="F149" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G148" s="24"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>100</v>
+    </row>
+    <row r="150" spans="1:7" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5507,61 +5522,58 @@
         <v>357</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5569,81 +5581,78 @@
         <v>357</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="F157" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="17" t="s">
+    <row r="158" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B158" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C158" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="20" t="s">
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G156" s="17"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G158" s="17"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>667</v>
+        <v>206</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>100</v>
+        <v>207</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5651,19 +5660,16 @@
         <v>63</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>197</v>
+        <v>519</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F160" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>339</v>
+        <v>520</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5671,13 +5677,16 @@
         <v>63</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>326</v>
+        <v>667</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>101</v>
+        <v>668</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5685,44 +5694,47 @@
         <v>63</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>497</v>
+        <v>326</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>498</v>
+        <v>327</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F164" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>345</v>
+        <v>67</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5730,30 +5742,30 @@
         <v>63</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>516</v>
+        <v>65</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>518</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5761,41 +5773,41 @@
         <v>63</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>199</v>
+        <v>563</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>66</v>
+        <v>516</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F168" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>100</v>
@@ -5806,13 +5818,16 @@
         <v>63</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5820,13 +5835,13 @@
         <v>63</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>101</v>
+        <v>191</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5834,13 +5849,13 @@
         <v>63</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>100</v>
+        <v>280</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5848,10 +5863,10 @@
         <v>63</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>568</v>
+        <v>278</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>569</v>
+        <v>281</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>101</v>
@@ -5862,10 +5877,10 @@
         <v>63</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>477</v>
+        <v>279</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>476</v>
+        <v>282</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>100</v>
@@ -5876,75 +5891,72 @@
         <v>63</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F175" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B176" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G176" s="17"/>
     </row>
     <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G178" s="17"/>
+    </row>
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>428</v>
+        <v>560</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>429</v>
+        <v>561</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>99</v>
@@ -5955,10 +5967,13 @@
         <v>420</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>430</v>
+        <v>716</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>431</v>
+        <v>717</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>99</v>
@@ -5969,10 +5984,10 @@
         <v>420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>99</v>
@@ -5983,30 +5998,24 @@
         <v>420</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>616</v>
+        <v>401</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>99</v>
@@ -6017,76 +6026,78 @@
         <v>420</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>422</v>
+        <v>616</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>424</v>
+        <v>618</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>531</v>
+        <v>434</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F186" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F187" s="3"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>142</v>
+        <v>532</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6094,44 +6105,48 @@
         <v>420</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F189" s="3"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>101</v>
+        <v>504</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6139,10 +6154,10 @@
         <v>420</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>101</v>
@@ -6153,10 +6168,10 @@
         <v>420</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>101</v>
@@ -6167,123 +6182,120 @@
         <v>420</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>542</v>
+        <v>423</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F195" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F197" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F196" s="19" t="s">
+      <c r="F198" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="17" t="s">
+    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B199" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C199" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="19" t="s">
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G197" s="17"/>
-    </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F199" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="G199" s="17"/>
     </row>
     <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F201" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>346</v>
+        <v>305</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6291,27 +6303,30 @@
         <v>93</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>101</v>
+        <v>214</v>
+      </c>
+      <c r="F203" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6319,142 +6334,142 @@
         <v>93</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B206" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
-      <c r="F206" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G206" s="17"/>
+      <c r="B206" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G208" s="17"/>
+    </row>
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>756</v>
+        <v>71</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>757</v>
+        <v>72</v>
       </c>
       <c r="F209" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F210" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G209" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B210" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C210" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G210" s="17" t="s">
-        <v>336</v>
+      <c r="G210" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>635</v>
+        <v>750</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>101</v>
+        <v>751</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D212" s="17"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G212" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6462,10 +6477,10 @@
         <v>73</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>74</v>
+        <v>635</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>100</v>
@@ -6476,27 +6491,27 @@
         <v>73</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>75</v>
+        <v>551</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>83</v>
+        <v>552</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>555</v>
+        <v>74</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F215" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6504,27 +6519,27 @@
         <v>73</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>680</v>
+        <v>555</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>100</v>
+        <v>556</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6532,13 +6547,13 @@
         <v>73</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>101</v>
+        <v>412</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6546,69 +6561,69 @@
         <v>73</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>283</v>
+        <v>680</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>256</v>
+        <v>553</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F221" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>621</v>
+        <v>256</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>623</v>
+        <v>236</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>624</v>
+        <v>237</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>101</v>
@@ -6619,10 +6634,10 @@
         <v>73</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>232</v>
+        <v>621</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>233</v>
+        <v>622</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>101</v>
@@ -6633,10 +6648,10 @@
         <v>73</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>228</v>
+        <v>623</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>229</v>
+        <v>624</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>101</v>
@@ -6647,13 +6662,10 @@
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>637</v>
+        <v>232</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>639</v>
+        <v>233</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>101</v>
@@ -6664,10 +6676,10 @@
         <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>625</v>
+        <v>228</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>626</v>
+        <v>229</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>101</v>
@@ -6678,13 +6690,16 @@
         <v>73</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>718</v>
+        <v>637</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>99</v>
+        <v>638</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6692,13 +6707,13 @@
         <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>99</v>
+        <v>626</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6706,10 +6721,10 @@
         <v>73</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>612</v>
+        <v>713</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>613</v>
+        <v>714</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>99</v>
@@ -6720,13 +6735,13 @@
         <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>100</v>
+        <v>641</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6734,30 +6749,27 @@
         <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>241</v>
+        <v>612</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>285</v>
+        <v>590</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F233" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>334</v>
+        <v>591</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6765,27 +6777,30 @@
         <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F235" s="5" t="s">
-        <v>101</v>
+        <v>286</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6793,10 +6808,10 @@
         <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>101</v>
@@ -6807,27 +6822,24 @@
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>627</v>
+        <v>78</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>629</v>
+        <v>86</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>101</v>
@@ -6838,41 +6850,44 @@
         <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>449</v>
+        <v>87</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>478</v>
+        <v>627</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>642</v>
+        <v>448</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F241" s="5" t="s">
-        <v>101</v>
+        <v>449</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6880,27 +6895,27 @@
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>750</v>
+        <v>478</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>80</v>
+        <v>642</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>99</v>
+        <v>643</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6908,47 +6923,41 @@
         <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>549</v>
+        <v>744</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F244" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F245" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>295</v>
+        <v>549</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F246" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>335</v>
+        <v>550</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6956,10 +6965,10 @@
         <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="F247" s="16" t="s">
         <v>303</v>
@@ -6968,80 +6977,83 @@
         <v>335</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F248" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="F248" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>698</v>
+        <v>239</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="F249" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>89</v>
+        <v>231</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>754</v>
+        <v>696</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>377</v>
+        <v>89</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7049,27 +7061,30 @@
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>644</v>
+        <v>748</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>101</v>
+        <v>444</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7077,13 +7092,13 @@
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>245</v>
+        <v>644</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F255" s="14" t="s">
-        <v>258</v>
+        <v>645</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7091,10 +7106,10 @@
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>298</v>
+        <v>507</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>297</v>
+        <v>508</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>101</v>
@@ -7105,13 +7120,13 @@
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>646</v>
+        <v>245</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>100</v>
+        <v>246</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7119,10 +7134,10 @@
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>101</v>
@@ -7133,13 +7148,13 @@
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>101</v>
+        <v>647</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7147,13 +7162,13 @@
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F260" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7161,13 +7176,13 @@
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>524</v>
+        <v>630</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F261" s="14" t="s">
-        <v>258</v>
+        <v>631</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7175,16 +7190,13 @@
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>522</v>
+        <v>226</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>101</v>
+        <v>227</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7192,126 +7204,123 @@
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>224</v>
+        <v>524</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F263" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>648</v>
+        <v>522</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F264" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>585</v>
+        <v>224</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F266" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="F266" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B267" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C267" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D267" s="17"/>
-      <c r="E267" s="17"/>
-      <c r="F267" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G267" s="17"/>
+      <c r="B267" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>91</v>
+        <v>586</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F268" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="F268" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B269" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C269" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G269" s="17"/>
+    </row>
+    <row r="270" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="F270" s="5" t="s">
         <v>101</v>
@@ -7322,50 +7331,84 @@
         <v>90</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>351</v>
+        <v>222</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C274" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D274" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F272" s="4" t="s">
+      <c r="F274" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="17" t="s">
+    <row r="275" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B273" s="17" t="s">
+      <c r="B275" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C275" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D273" s="17" t="s">
+      <c r="D275" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E273" s="17"/>
-      <c r="F273" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G273" s="17"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G275" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE41482-7AAD-4FF8-8F3A-C46659165C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26089A54-BE9C-4FEE-9F61-72DB820AD4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="781">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2339,6 +2339,42 @@
   </si>
   <si>
     <t>BAU RPS Alternative Compliance Payment, RPS Alternative Compliance Payment</t>
+  </si>
+  <si>
+    <t>IFSR</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Shifting Ratio</t>
+  </si>
+  <si>
+    <t>GHESLE</t>
+  </si>
+  <si>
+    <t>GHESS</t>
+  </si>
+  <si>
+    <t>Green Hydrogen Electricity Supply Logit Exponent</t>
+  </si>
+  <si>
+    <t>Green Hydrogen Electricity Supply Shareweights</t>
+  </si>
+  <si>
+    <t>IFSRF</t>
+  </si>
+  <si>
+    <t>Industrial Feedstock Switching Recipient Fuel</t>
+  </si>
+  <si>
+    <t>MDSC</t>
+  </si>
+  <si>
+    <t>Max Distrib Solar Capacity</t>
+  </si>
+  <si>
+    <t>BPPEOUP</t>
+  </si>
+  <si>
+    <t>BAU Pwr Plnt Elec Own Use Perc</t>
   </si>
 </sst>
 </file>
@@ -3146,11 +3182,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G275"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,21 +3527,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>777</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>316</v>
+        <v>778</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3513,13 +3546,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3527,16 +3563,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>317</v>
+        <v>32</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3544,13 +3577,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>100</v>
+        <v>33</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3558,47 +3594,44 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>354</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>450</v>
+        <v>354</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>451</v>
+        <v>355</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3606,13 +3639,16 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>100</v>
+        <v>451</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3620,13 +3656,13 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>101</v>
+        <v>456</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3634,27 +3670,27 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>243</v>
+        <v>505</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>487</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>100</v>
+        <v>244</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3662,200 +3698,195 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B35" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F35" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>699</v>
+        <v>619</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>703</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>409</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>690</v>
+        <v>409</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>691</v>
+        <v>410</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="43" spans="1:7" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B43" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F43" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>485</v>
+        <v>172</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -3863,126 +3894,128 @@
         <v>142</v>
       </c>
       <c r="G45" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="17" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>557</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>558</v>
+        <v>325</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>436</v>
+        <v>557</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>437</v>
+        <v>558</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>251</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>723</v>
+        <v>251</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>724</v>
+        <v>252</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>509</v>
+        <v>723</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>510</v>
+        <v>724</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>511</v>
+        <v>725</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3990,16 +4023,16 @@
         <v>413</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>266</v>
+        <v>509</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>267</v>
+        <v>510</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4007,113 +4040,116 @@
         <v>413</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>572</v>
+        <v>266</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>573</v>
+        <v>267</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>178</v>
+        <v>572</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>179</v>
+        <v>573</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>577</v>
+        <v>178</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>579</v>
+        <v>179</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>415</v>
+        <v>577</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+      <c r="F59" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B60" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D60" s="17" t="s">
         <v>726</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="22" t="s">
+      <c r="E60" s="17"/>
+      <c r="F60" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G60" s="17" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4121,10 +4157,10 @@
         <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>99</v>
@@ -4135,13 +4171,13 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>100</v>
+        <v>202</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4149,49 +4185,46 @@
         <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>546</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>547</v>
+        <v>42</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="21" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G65" s="17" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4199,61 +4232,61 @@
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>181</v>
+        <v>658</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>727</v>
+        <v>659</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>604</v>
+        <v>328</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>687</v>
+        <v>604</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>100</v>
+        <v>603</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4261,33 +4294,33 @@
         <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>175</v>
+        <v>687</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>595</v>
+        <v>175</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>250</v>
+        <v>174</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4295,30 +4328,30 @@
         <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>595</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>322</v>
+        <v>50</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4326,30 +4359,33 @@
         <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>757</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>758</v>
+        <v>51</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>694</v>
+        <v>757</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>99</v>
+        <v>758</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4357,19 +4393,13 @@
         <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>677</v>
+        <v>779</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>99</v>
+        <v>780</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4377,10 +4407,10 @@
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>99</v>
@@ -4391,55 +4421,58 @@
         <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>160</v>
+        <v>677</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>678</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>661</v>
+        <v>692</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>731</v>
+        <v>661</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>732</v>
+        <v>662</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>101</v>
@@ -4450,106 +4483,103 @@
         <v>43</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>513</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>650</v>
+        <v>513</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>309</v>
+        <v>733</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>746</v>
+        <v>650</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>309</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>288</v>
+        <v>746</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>290</v>
+        <v>747</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>100</v>
@@ -4560,16 +4590,16 @@
         <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>663</v>
+        <v>47</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>664</v>
+        <v>171</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>101</v>
+        <v>708</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4577,33 +4607,33 @@
         <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>100</v>
+        <v>735</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4611,13 +4641,16 @@
         <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>608</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>101</v>
+        <v>170</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4625,13 +4658,16 @@
         <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>101</v>
+        <v>675</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4639,33 +4675,27 @@
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>489</v>
+        <v>608</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>177</v>
+        <v>736</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>321</v>
+        <v>737</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4673,69 +4703,72 @@
         <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>718</v>
+        <v>489</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>738</v>
+        <v>177</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>593</v>
+        <v>771</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>100</v>
+        <v>773</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B99" s="2" t="s">
-        <v>606</v>
+        <v>772</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>755</v>
+        <v>718</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>99</v>
+        <v>719</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4743,24 +4776,24 @@
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>597</v>
+        <v>738</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>598</v>
+        <v>739</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>665</v>
+        <v>593</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>666</v>
+        <v>594</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>100</v>
@@ -4771,10 +4804,10 @@
         <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>48</v>
+        <v>606</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>53</v>
+        <v>607</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>99</v>
@@ -4785,109 +4818,103 @@
         <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>196</v>
+        <v>755</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>597</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>760</v>
+        <v>665</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>753</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>672</v>
+        <v>196</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>580</v>
+        <v>760</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>100</v>
+        <v>761</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4895,16 +4922,16 @@
         <v>43</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>203</v>
+        <v>753</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>204</v>
+        <v>754</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>205</v>
+        <v>768</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>338</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4912,16 +4939,16 @@
         <v>43</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>101</v>
+        <v>740</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4929,131 +4956,134 @@
         <v>43</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>601</v>
+        <v>186</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>99</v>
+        <v>187</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B114" s="2" t="s">
-        <v>670</v>
+        <v>580</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>452</v>
+        <v>203</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>453</v>
+        <v>204</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>654</v>
+        <v>601</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>100</v>
+        <v>602</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B118" s="2" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>575</v>
+        <v>452</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>576</v>
+        <v>453</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>599</v>
+        <v>654</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>99</v>
+        <v>655</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5061,16 +5091,13 @@
         <v>43</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>741</v>
+        <v>656</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>99</v>
+        <v>657</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5078,107 +5105,110 @@
         <v>43</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>711</v>
+        <v>575</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B124" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="E124" s="17"/>
-      <c r="F124" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>269</v>
+        <v>599</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>100</v>
+        <v>600</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>273</v>
+        <v>741</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>274</v>
+        <v>742</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>271</v>
+        <v>711</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E128" s="17"/>
+      <c r="F128" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>182</v>
+        <v>270</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>100</v>
@@ -5189,106 +5219,103 @@
         <v>275</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>185</v>
+        <v>274</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B131" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="20" t="s">
+      <c r="B131" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G131" s="17"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>99</v>
+        <v>419</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>473</v>
+        <v>183</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>380</v>
+        <v>184</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G135" s="17"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>101</v>
+        <v>472</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5296,16 +5323,16 @@
         <v>55</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>526</v>
+        <v>473</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>101</v>
+        <v>474</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5313,44 +5340,44 @@
         <v>55</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>544</v>
+        <v>380</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>545</v>
+        <v>381</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>610</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>337</v>
+        <v>314</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5358,47 +5385,44 @@
         <v>55</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>311</v>
+        <v>526</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>312</v>
+        <v>527</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>390</v>
+        <v>544</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F142" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>391</v>
+        <v>610</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F143" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>397</v>
+        <v>611</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5406,188 +5430,194 @@
         <v>55</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>392</v>
+        <v>57</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F144" s="16" t="s">
-        <v>303</v>
+        <v>60</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B148" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="F148" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G148" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>406</v>
+        <v>58</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>407</v>
+        <v>61</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="17" t="s">
+    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B154" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C154" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="D154" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="F150" s="19" t="s">
+      <c r="F154" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>100</v>
+        <v>366</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5595,132 +5625,123 @@
         <v>357</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F157" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F160" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G158" s="17"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F160" s="14" t="s">
-        <v>400</v>
+      <c r="G160" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>667</v>
+        <v>365</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F161" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F162" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G162" s="17"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>101</v>
+        <v>207</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5728,75 +5749,81 @@
         <v>63</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>64</v>
+        <v>519</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>497</v>
+        <v>667</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>68</v>
+        <v>198</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="F166" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>563</v>
+        <v>326</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>564</v>
+        <v>327</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>516</v>
+        <v>64</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>518</v>
+        <v>67</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5804,100 +5831,103 @@
         <v>63</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>199</v>
+        <v>497</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>190</v>
+        <v>563</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>277</v>
+        <v>769</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>278</v>
+        <v>775</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>279</v>
+        <v>516</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>568</v>
+        <v>199</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>101</v>
+        <v>200</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5905,13 +5935,16 @@
         <v>63</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>477</v>
+        <v>66</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>100</v>
+        <v>69</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5919,137 +5952,128 @@
         <v>63</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>493</v>
+        <v>190</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>494</v>
+        <v>191</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="17" t="s">
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B178" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G178" s="17"/>
+      <c r="B178" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>560</v>
+        <v>278</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>716</v>
+        <v>279</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>428</v>
+        <v>568</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G184" s="17"/>
     </row>
     <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>616</v>
+        <v>560</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>618</v>
+        <v>561</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>99</v>
@@ -6060,10 +6084,13 @@
         <v>420</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>434</v>
+        <v>716</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>435</v>
+        <v>717</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>99</v>
@@ -6074,62 +6101,55 @@
         <v>420</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>531</v>
+        <v>430</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F188" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>480</v>
+        <v>401</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F189" s="3"/>
+        <v>402</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>529</v>
+        <v>432</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F190" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>534</v>
+        <v>433</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6137,13 +6157,16 @@
         <v>420</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>503</v>
+        <v>616</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>504</v>
+        <v>618</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>99</v>
@@ -6154,13 +6177,13 @@
         <v>420</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>101</v>
+        <v>435</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6168,55 +6191,62 @@
         <v>420</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>423</v>
+        <v>531</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F195" s="3"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>99</v>
+        <v>530</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6224,58 +6254,55 @@
         <v>420</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F197" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>570</v>
+        <v>501</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F198" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B199" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G199" s="17"/>
-    </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>209</v>
+        <v>423</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>210</v>
+        <v>425</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>101</v>
@@ -6283,277 +6310,283 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>304</v>
+        <v>469</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F201" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>211</v>
+        <v>542</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>101</v>
+        <v>543</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>213</v>
+        <v>426</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>214</v>
+        <v>427</v>
       </c>
       <c r="F203" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>215</v>
+        <v>570</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F204" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="F204" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G205" s="17"/>
     </row>
     <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>219</v>
+        <v>305</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="17" t="s">
+    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B208" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G208" s="17"/>
+      <c r="B208" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>102</v>
+        <v>214</v>
+      </c>
+      <c r="F209" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>548</v>
+        <v>220</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F213" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D214" s="17"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G214" s="17"/>
+    </row>
+    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B215" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="F211" s="6" t="s">
+      <c r="F217" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G211" s="2" t="s">
+      <c r="G217" s="2" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="17" t="s">
+    <row r="218" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B212" s="17" t="s">
+      <c r="B218" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C218" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="22" t="s">
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G212" s="17" t="s">
+      <c r="G218" s="17" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6561,10 +6594,10 @@
         <v>73</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>680</v>
+        <v>635</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>681</v>
+        <v>636</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>100</v>
@@ -6575,10 +6608,10 @@
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>101</v>
@@ -6589,27 +6622,27 @@
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6617,13 +6650,10 @@
         <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>236</v>
+        <v>555</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>379</v>
+        <v>556</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>101</v>
@@ -6634,260 +6664,260 @@
         <v>73</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>621</v>
+        <v>411</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F224" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>623</v>
+        <v>680</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>232</v>
+        <v>553</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>233</v>
+        <v>554</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>637</v>
+        <v>256</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F228" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>625</v>
+        <v>236</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>626</v>
+        <v>237</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>713</v>
+        <v>621</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>612</v>
+        <v>232</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>590</v>
+        <v>228</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>241</v>
+        <v>637</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>285</v>
+        <v>625</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>76</v>
+        <v>713</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F236" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>77</v>
+        <v>640</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F237" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>78</v>
+        <v>612</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>87</v>
+        <v>591</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>627</v>
+        <v>241</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>448</v>
+        <v>285</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>100</v>
+        <v>286</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6895,24 +6925,24 @@
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>478</v>
+        <v>76</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>642</v>
+        <v>77</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>643</v>
+        <v>85</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>101</v>
@@ -6923,13 +6953,13 @@
         <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>744</v>
+        <v>78</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6937,78 +6967,72 @@
         <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>550</v>
+        <v>628</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>293</v>
+        <v>448</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F247" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>295</v>
+        <v>478</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F248" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>239</v>
+        <v>642</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F249" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>335</v>
+        <v>643</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7016,58 +7040,58 @@
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>230</v>
+        <v>744</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>696</v>
+        <v>80</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>748</v>
+        <v>293</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>100</v>
+        <v>294</v>
+      </c>
+      <c r="F253" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7075,30 +7099,33 @@
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>443</v>
+        <v>295</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>142</v>
+        <v>296</v>
+      </c>
+      <c r="F254" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>644</v>
+        <v>239</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>101</v>
+        <v>240</v>
+      </c>
+      <c r="F255" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7106,41 +7133,44 @@
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>507</v>
+        <v>230</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>245</v>
+        <v>696</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F257" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7148,27 +7178,30 @@
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>646</v>
+        <v>748</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>647</v>
+        <v>749</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>234</v>
+        <v>443</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F260" s="5" t="s">
-        <v>101</v>
+        <v>444</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7176,10 +7209,10 @@
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>101</v>
@@ -7190,13 +7223,13 @@
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>226</v>
+        <v>507</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F262" s="12" t="s">
-        <v>250</v>
+        <v>508</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7204,10 +7237,10 @@
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>524</v>
+        <v>245</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>525</v>
+        <v>246</v>
       </c>
       <c r="F263" s="14" t="s">
         <v>258</v>
@@ -7218,13 +7251,10 @@
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>522</v>
+        <v>298</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>101</v>
@@ -7235,92 +7265,83 @@
         <v>73</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>224</v>
+        <v>646</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F265" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>648</v>
+        <v>234</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F266" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>586</v>
+        <v>226</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F268" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F268" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B269" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C269" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D269" s="17"/>
-      <c r="E269" s="17"/>
-      <c r="F269" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G269" s="17"/>
-    </row>
-    <row r="270" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F269" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>91</v>
+        <v>522</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>315</v>
+        <v>523</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="F270" s="5" t="s">
         <v>101</v>
@@ -7328,87 +7349,183 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>403</v>
+        <v>225</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>247</v>
+        <v>648</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F272" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="F272" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>351</v>
+        <v>585</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>100</v>
+        <v>589</v>
+      </c>
+      <c r="F274" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B275" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C275" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G275" s="17"/>
+    </row>
+    <row r="276" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B275" s="17" t="s">
+      <c r="B276" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B281" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C281" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D275" s="17" t="s">
+      <c r="D281" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E275" s="17"/>
-      <c r="F275" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G275" s="17"/>
+      <c r="E281" s="17"/>
+      <c r="F281" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G281" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26089A54-BE9C-4FEE-9F61-72DB820AD4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7237423-EA6D-4B30-87A8-5E17635AFF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="811">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -1615,9 +1615,6 @@
     <t>FoPTaFbIC</t>
   </si>
   <si>
-    <t>Fractions of Products That are Fuels by ISIC Code</t>
-  </si>
-  <si>
     <t>BObIC, BFPaT</t>
   </si>
   <si>
@@ -1858,12 +1855,6 @@
     <t>Load Factor Hourly Variance Multiplier</t>
   </si>
   <si>
-    <t>FoSYCRpUNL</t>
-  </si>
-  <si>
-    <t>Fraction of Start Year Capacity Retired per Unit Net Loss</t>
-  </si>
-  <si>
     <t>FSPbPPT</t>
   </si>
   <si>
@@ -2375,6 +2366,105 @@
   </si>
   <si>
     <t>BAU Pwr Plnt Elec Own Use Perc</t>
+  </si>
+  <si>
+    <t>RZSPbS</t>
+  </si>
+  <si>
+    <t>Required ZEV Sales Percentage by Subregion</t>
+  </si>
+  <si>
+    <t>You are modeling non-BAU subregional ZEV sales requirements (as opposed to a national ZEV sales standard)</t>
+  </si>
+  <si>
+    <t>STfECCE</t>
+  </si>
+  <si>
+    <t>BUCMfNCR</t>
+  </si>
+  <si>
+    <t>Boolean Use Capacity Market for New Capacity Revenue</t>
+  </si>
+  <si>
+    <t>You wish the electricity sector to only collect capacity costs for new capacity and not pay them out to all resources in the market.</t>
+  </si>
+  <si>
+    <t>FoICbCTBA</t>
+  </si>
+  <si>
+    <t>Fraction of Industry Covered by Carbon Tax Border Adjustment</t>
+  </si>
+  <si>
+    <t>Fraction of Vehicle Types Subject to Carbon Tax</t>
+  </si>
+  <si>
+    <t>BBNPPTY</t>
+  </si>
+  <si>
+    <t>BBPPRTY</t>
+  </si>
+  <si>
+    <t>BAU Ban New Power Plants This Year</t>
+  </si>
+  <si>
+    <t>BAU Ban Power Plant Retrofits This Year</t>
+  </si>
+  <si>
+    <t>CRpUNL</t>
+  </si>
+  <si>
+    <t>Cap Ret per Unit Net Loss</t>
+  </si>
+  <si>
+    <t>ESUfRaLCD</t>
+  </si>
+  <si>
+    <t>Elec Sources Used for Rlbty and Lst Cst Dsptch</t>
+  </si>
+  <si>
+    <t>BFoICbCTBA</t>
+  </si>
+  <si>
+    <t>BFoICStCT</t>
+  </si>
+  <si>
+    <t>BFoVTStCT</t>
+  </si>
+  <si>
+    <t>BAU Fraction of Industry Covered by Carbon Tax Border Adjustment</t>
+  </si>
+  <si>
+    <t>BAU Fraction of Industry Category Subject to Carbon Tax</t>
+  </si>
+  <si>
+    <t>BAU Fraction of Vehicle Types Subject to Carbon Tax</t>
+  </si>
+  <si>
+    <t>FoVTStCT</t>
+  </si>
+  <si>
+    <t>Fraction of Products That are Fuels by ISIC Code</t>
+  </si>
+  <si>
+    <t>ACTR</t>
+  </si>
+  <si>
+    <t>Avg Corp Tax Rate</t>
+  </si>
+  <si>
+    <t>BLP</t>
+  </si>
+  <si>
+    <t>BAU LCFS Percentage</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>Check Input Data</t>
+  </si>
+  <si>
+    <t>do not edit - QC file to automatically check specified files</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2455,6 +2545,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2477,7 +2573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2535,6 +2631,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2849,7 +2948,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,11 +3281,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F292" sqref="F292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3229,10 +3328,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3240,7 +3339,7 @@
         <v>99</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3248,16 +3347,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3279,16 +3378,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3355,10 +3454,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>99</v>
@@ -3386,10 +3485,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>99</v>
@@ -3532,10 +3631,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>101</v>
@@ -3748,10 +3847,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>99</v>
@@ -3762,13 +3861,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>101</v>
@@ -3779,10 +3878,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>100</v>
@@ -3799,7 +3898,7 @@
         <v>417</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>101</v>
@@ -3816,7 +3915,7 @@
         <v>410</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>101</v>
@@ -3827,10 +3926,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>101</v>
@@ -3841,10 +3940,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>100</v>
@@ -3855,10 +3954,10 @@
         <v>36</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>575</v>
+        <v>781</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>100</v>
@@ -3913,7 +4012,7 @@
         <v>142</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3938,16 +4037,16 @@
         <v>413</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4006,16 +4105,16 @@
         <v>413</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4057,75 +4156,78 @@
         <v>413</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>178</v>
+        <v>782</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>179</v>
+        <v>783</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>577</v>
+        <v>178</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>579</v>
+        <v>179</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>415</v>
+        <v>576</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>632</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>633</v>
+        <v>416</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>101</v>
@@ -4142,7 +4244,7 @@
         <v>465</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="22" t="s">
@@ -4199,10 +4301,10 @@
         <v>38</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>100</v>
@@ -4227,52 +4329,49 @@
         <v>387</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>181</v>
+        <v>789</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>728</v>
+        <v>791</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>99</v>
+        <v>656</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4280,140 +4379,143 @@
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>604</v>
+        <v>181</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>687</v>
+        <v>328</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
+        <v>603</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>595</v>
+        <v>684</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>596</v>
+        <v>685</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>594</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>757</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>779</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>694</v>
+        <v>754</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>99</v>
+        <v>755</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4421,19 +4523,13 @@
         <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>677</v>
+        <v>776</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>99</v>
+        <v>777</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4441,10 +4537,10 @@
         <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>99</v>
@@ -4455,55 +4551,58 @@
         <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>674</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>161</v>
+        <v>675</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>731</v>
+        <v>658</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>732</v>
+        <v>659</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>101</v>
@@ -4514,47 +4613,47 @@
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>513</v>
+        <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>767</v>
+        <v>729</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>650</v>
+        <v>513</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>101</v>
+        <v>514</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4562,27 +4661,30 @@
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>309</v>
+        <v>792</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>100</v>
+        <v>731</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4590,50 +4692,41 @@
         <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>647</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>101</v>
+        <v>744</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4641,30 +4734,30 @@
         <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>447</v>
+        <v>705</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>674</v>
+        <v>288</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>675</v>
+        <v>289</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>676</v>
+        <v>290</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>100</v>
@@ -4675,61 +4768,64 @@
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>608</v>
+        <v>660</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>609</v>
+        <v>661</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>732</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>736</v>
+        <v>169</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>489</v>
+        <v>671</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>490</v>
+        <v>672</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>177</v>
+        <v>794</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>321</v>
+        <v>795</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4737,38 +4833,47 @@
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>771</v>
+        <v>733</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>773</v>
+        <v>734</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B99" s="2" t="s">
-        <v>772</v>
+        <v>489</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>718</v>
+        <v>177</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>100</v>
+        <v>176</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4776,41 +4881,38 @@
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
-        <v>593</v>
+        <v>769</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>606</v>
+        <v>715</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>99</v>
+        <v>716</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4818,24 +4920,24 @@
         <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>100</v>
@@ -4846,13 +4948,13 @@
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>665</v>
+        <v>605</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>100</v>
+        <v>606</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,10 +4962,10 @@
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>752</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>53</v>
+        <v>753</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>99</v>
@@ -4874,95 +4976,89 @@
         <v>43</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>196</v>
+        <v>596</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>208</v>
+        <v>597</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>662</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>760</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>753</v>
+        <v>196</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>672</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>186</v>
+        <v>757</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>100</v>
+        <v>758</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4970,75 +5066,78 @@
         <v>43</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>580</v>
+        <v>750</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>203</v>
+        <v>669</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>204</v>
+        <v>670</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>684</v>
+        <v>186</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>99</v>
+        <v>580</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B118" s="2" t="s">
-        <v>670</v>
+        <v>203</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>258</v>
+        <v>204</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5046,55 +5145,58 @@
         <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>452</v>
+        <v>681</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>453</v>
+        <v>682</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>682</v>
+        <v>600</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F120" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="F121" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>656</v>
+        <v>452</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>657</v>
+        <v>453</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>100</v>
@@ -5105,44 +5207,41 @@
         <v>43</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>575</v>
+        <v>679</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F124" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>99</v>
+        <v>654</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5150,99 +5249,96 @@
         <v>43</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>741</v>
+        <v>574</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>711</v>
+        <v>649</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B128" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="E128" s="17"/>
-      <c r="F128" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="G128" s="17" t="s">
-        <v>350</v>
+      <c r="B128" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>269</v>
+        <v>738</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>270</v>
+        <v>739</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>100</v>
+        <v>740</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>273</v>
+        <v>708</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>100</v>
+        <v>709</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="F131" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5250,148 +5346,145 @@
         <v>275</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>418</v>
+        <v>269</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>182</v>
+        <v>274</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>631</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B135" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G135" s="17"/>
+      <c r="B135" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>471</v>
+        <v>183</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>473</v>
+        <v>184</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G138" s="17"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>471</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>268</v>
+        <v>472</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>313</v>
+        <v>796</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>314</v>
+        <v>799</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>526</v>
+        <v>797</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>528</v>
+        <v>800</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>101</v>
@@ -5402,13 +5495,13 @@
         <v>55</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>544</v>
+        <v>798</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>99</v>
+        <v>801</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5416,61 +5509,61 @@
         <v>55</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>610</v>
+        <v>473</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>311</v>
+        <v>56</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F146" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>396</v>
+        <v>314</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5478,349 +5571,337 @@
         <v>55</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>391</v>
+        <v>785</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F147" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>392</v>
+        <v>629</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F148" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>526</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>376</v>
+        <v>802</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>388</v>
+        <v>543</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>389</v>
+        <v>544</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="17" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B152" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="F152" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G152" s="17" t="s">
-        <v>353</v>
+      <c r="B152" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>406</v>
+        <v>57</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F153" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F155" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F158" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="17" t="s">
-        <v>763</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="F154" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>370</v>
+        <v>340</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="B164" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B162" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G162" s="17"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F163" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="B165" s="2" t="s">
-        <v>667</v>
+        <v>360</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>669</v>
+        <v>367</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>197</v>
+        <v>361</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F166" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>339</v>
+        <v>368</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>101</v>
+        <v>369</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>64</v>
+        <v>363</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>100</v>
@@ -5828,106 +5909,121 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>497</v>
+        <v>364</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F170" s="16" t="s">
-        <v>303</v>
+        <v>372</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G171" s="17"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>769</v>
+        <v>206</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>775</v>
+        <v>519</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>516</v>
+        <v>664</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>100</v>
+        <v>198</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5935,16 +6031,13 @@
         <v>63</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F176" s="14" t="s">
-        <v>400</v>
+        <v>327</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5952,269 +6045,263 @@
         <v>63</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>277</v>
+        <v>497</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>280</v>
+        <v>498</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>278</v>
+        <v>65</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>279</v>
+        <v>562</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>568</v>
+        <v>766</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>477</v>
+        <v>772</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>476</v>
+        <v>773</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F183" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B184" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="D184" s="17"/>
-      <c r="E184" s="17"/>
-      <c r="F184" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G184" s="17"/>
     </row>
     <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>560</v>
+        <v>66</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>561</v>
+        <v>69</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>716</v>
+        <v>190</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>428</v>
+        <v>277</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>430</v>
+        <v>278</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>401</v>
+        <v>279</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>432</v>
+        <v>567</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>99</v>
+        <v>568</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>616</v>
+        <v>477</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G193" s="17"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>531</v>
+        <v>804</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F194" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>533</v>
+        <v>805</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6222,45 +6309,44 @@
         <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>480</v>
+        <v>559</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F195" s="3"/>
+        <v>561</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>529</v>
+        <v>713</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>503</v>
+        <v>428</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>99</v>
@@ -6271,13 +6357,13 @@
         <v>420</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>501</v>
+        <v>430</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>101</v>
+        <v>431</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6285,13 +6371,13 @@
         <v>420</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>101</v>
+        <v>402</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6299,27 +6385,33 @@
         <v>420</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>101</v>
+        <v>615</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6327,134 +6419,132 @@
         <v>420</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>542</v>
+        <v>434</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>543</v>
+        <v>435</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F203" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F204" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="F204" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F207" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="17" t="s">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B205" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17"/>
-      <c r="F205" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G205" s="17"/>
-    </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F207" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="B208" s="2" t="s">
-        <v>211</v>
+        <v>501</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>212</v>
+        <v>502</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>213</v>
+        <v>467</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F209" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>220</v>
+        <v>425</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>101</v>
@@ -6462,27 +6552,27 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>97</v>
+        <v>470</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>216</v>
+        <v>541</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>217</v>
+        <v>542</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>99</v>
@@ -6490,128 +6580,123 @@
     </row>
     <row r="213" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>218</v>
+        <v>426</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F213" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B214" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D214" s="17"/>
-      <c r="E214" s="17"/>
-      <c r="F214" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G214" s="17"/>
-    </row>
-    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F215" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>331</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="F213" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F214" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G215" s="17"/>
     </row>
     <row r="216" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>548</v>
+        <v>210</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>750</v>
+        <v>304</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="F217" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B218" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
-      <c r="F218" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G218" s="17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>635</v>
+        <v>213</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="F219" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>551</v>
+        <v>215</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>552</v>
+        <v>220</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>101</v>
@@ -6619,305 +6704,316 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>101</v>
+        <v>217</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>555</v>
+        <v>218</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F223" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F224" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="17"/>
+    </row>
+    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>680</v>
+        <v>71</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>553</v>
+        <v>192</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F226" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>283</v>
+        <v>747</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17"/>
+      <c r="F228" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G228" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>236</v>
+        <v>632</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F229" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>621</v>
+        <v>550</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>622</v>
+        <v>551</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>623</v>
+        <v>74</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>228</v>
+        <v>554</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>229</v>
+        <v>555</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>637</v>
+        <v>411</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>625</v>
+        <v>677</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F235" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>713</v>
+        <v>552</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>640</v>
+        <v>283</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>641</v>
+        <v>284</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>612</v>
+        <v>256</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>613</v>
+        <v>257</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>590</v>
+        <v>236</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>241</v>
+        <v>806</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>285</v>
+        <v>618</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F241" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>334</v>
+        <v>619</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6925,10 +7021,10 @@
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>76</v>
+        <v>620</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>84</v>
+        <v>621</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>101</v>
@@ -6939,10 +7035,10 @@
         <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>101</v>
@@ -6953,10 +7049,10 @@
         <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>101</v>
@@ -6967,27 +7063,27 @@
         <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>79</v>
+        <v>634</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F245" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>101</v>
@@ -6998,13 +7094,13 @@
         <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>448</v>
+        <v>710</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>100</v>
+        <v>711</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7012,27 +7108,27 @@
         <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>478</v>
+        <v>637</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F248" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>101</v>
+        <v>610</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7040,13 +7136,13 @@
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>744</v>
+        <v>589</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>99</v>
+        <v>590</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7054,78 +7150,72 @@
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>549</v>
+        <v>285</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F253" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F254" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F255" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>335</v>
+        <v>86</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7133,13 +7223,10 @@
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>100</v>
@@ -7150,24 +7237,27 @@
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>696</v>
+        <v>624</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>697</v>
+        <v>625</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>89</v>
+        <v>449</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>100</v>
@@ -7178,30 +7268,27 @@
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>748</v>
+        <v>478</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>749</v>
+        <v>479</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>443</v>
+        <v>639</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F260" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>377</v>
+        <v>640</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7209,13 +7296,13 @@
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>644</v>
+        <v>741</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F261" s="5" t="s">
-        <v>101</v>
+        <v>742</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7223,13 +7310,13 @@
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7237,55 +7324,64 @@
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>245</v>
+        <v>548</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F263" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="F264" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>646</v>
+        <v>295</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="F265" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F266" s="5" t="s">
-        <v>101</v>
+        <v>240</v>
+      </c>
+      <c r="F266" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7293,41 +7389,44 @@
         <v>73</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>630</v>
+        <v>230</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F267" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>226</v>
+        <v>693</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F268" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F269" s="14" t="s">
-        <v>258</v>
+        <v>89</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7335,61 +7434,58 @@
         <v>73</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>522</v>
+        <v>745</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>224</v>
+        <v>443</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F271" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F272" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>585</v>
+        <v>507</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>588</v>
+        <v>508</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7397,47 +7493,41 @@
         <v>73</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>586</v>
+        <v>778</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>589</v>
+        <v>779</v>
       </c>
       <c r="F274" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="17" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B275" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C275" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D275" s="17"/>
-      <c r="E275" s="17"/>
-      <c r="F275" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G275" s="17"/>
-    </row>
-    <row r="276" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F275" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F276" s="5" t="s">
         <v>101</v>
@@ -7445,33 +7535,27 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>222</v>
+        <v>643</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F277" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F278" s="5" t="s">
         <v>101</v>
@@ -7479,53 +7563,256 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>351</v>
+        <v>627</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F279" s="4" t="s">
-        <v>100</v>
+        <v>628</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F280" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F281" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F284" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F286" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B287" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C287" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D287" s="17"/>
+      <c r="E287" s="17"/>
+      <c r="F287" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G287" s="17"/>
+    </row>
+    <row r="288" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B288" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="F291" s="25" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F280" s="4" t="s">
+      <c r="F293" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="17" t="s">
+    <row r="294" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B281" s="17" t="s">
+      <c r="B294" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C281" s="17" t="s">
+      <c r="C294" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D281" s="17" t="s">
+      <c r="D294" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E281" s="17"/>
-      <c r="F281" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G281" s="17"/>
+      <c r="E294" s="17"/>
+      <c r="F294" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G294" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
